--- a/Diameter runs for fitting/1_625_Trial.xlsx
+++ b/Diameter runs for fitting/1_625_Trial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snip/Documents/MEOP/Diameter runs for fitting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4C28A0-E422-B742-BF5F-A416153467BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B521437A-D4BA-4F43-9A98-DF8352DDA7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="29040" windowHeight="15720" xr2:uid="{0436D267-292A-4EEF-B4D2-7B40D7531FD8}"/>
   </bookViews>
@@ -414,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D339042A-8DE1-45C7-A228-2D65F89B93FE}">
-  <dimension ref="A1:B834"/>
+  <dimension ref="A1:B765"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -2672,4425 +2672,3873 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
-        <v>0.4224715277777778</v>
+        <v>0.42248371527777778</v>
       </c>
       <c r="B282">
-        <v>58.725999999999999</v>
+        <v>71.144900000000007</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
-        <v>0.42248371527777778</v>
+        <v>0.42249579861111114</v>
       </c>
       <c r="B283">
-        <v>71.144900000000007</v>
+        <v>69.168899999999994</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
-        <v>0.42249579861111114</v>
+        <v>0.42333458333333335</v>
       </c>
       <c r="B284">
-        <v>69.168899999999994</v>
+        <v>69.262799999999999</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
-        <v>0.42250797453703703</v>
+        <v>0.42334677083333333</v>
       </c>
       <c r="B285">
-        <v>77.166799999999995</v>
+        <v>70.205299999999994</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
-        <v>0.42252013888888884</v>
+        <v>0.42335894675925928</v>
       </c>
       <c r="B286">
-        <v>171.07599999999999</v>
+        <v>70.557299999999998</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
-        <v>0.422532349537037</v>
+        <v>0.42337114583333335</v>
       </c>
       <c r="B287">
-        <v>879.42600000000004</v>
+        <v>69.368200000000002</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
-        <v>0.42254451388888886</v>
+        <v>0.423383275462963</v>
       </c>
       <c r="B288">
-        <v>0</v>
+        <v>69.952399999999997</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
-        <v>0.42255658564814819</v>
+        <v>0.42339538194444443</v>
       </c>
       <c r="B289">
-        <v>0</v>
+        <v>70.434299999999993</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
-        <v>0.42256879629629635</v>
+        <v>0.42340747685185187</v>
       </c>
       <c r="B290">
-        <v>44.830399999999997</v>
+        <v>71.0381</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
-        <v>0.4225810069444445</v>
+        <v>0.42341966435185185</v>
       </c>
       <c r="B291">
-        <v>45.764000000000003</v>
+        <v>69.557699999999997</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
-        <v>0.4225932291666667</v>
+        <v>0.42343182870370372</v>
       </c>
       <c r="B292">
-        <v>47.665399999999998</v>
+        <v>71.340900000000005</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
-        <v>0.42260542824074071</v>
+        <v>0.42344395833333331</v>
       </c>
       <c r="B293">
-        <v>49.154699999999998</v>
+        <v>70.666700000000006</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
-        <v>0.42261752314814816</v>
+        <v>0.42345609953703706</v>
       </c>
       <c r="B294">
-        <v>51.015799999999999</v>
+        <v>70.4953</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
-        <v>0.42262969907407405</v>
+        <v>0.42346829861111113</v>
       </c>
       <c r="B295">
-        <v>51.625500000000002</v>
+        <v>69.203199999999995</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
-        <v>0.42264190972222221</v>
+        <v>0.42348048611111111</v>
       </c>
       <c r="B296">
-        <v>52.475700000000003</v>
+        <v>70.924499999999995</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
-        <v>0.42265407407407407</v>
+        <v>0.4234927083333333</v>
       </c>
       <c r="B297">
-        <v>54.4666</v>
+        <v>70.471599999999995</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
-        <v>0.42266628472222223</v>
+        <v>0.42350490740740743</v>
       </c>
       <c r="B298">
-        <v>54.7378</v>
+        <v>69.784599999999998</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
-        <v>0.42267842592592592</v>
+        <v>0.42351689814814814</v>
       </c>
       <c r="B299">
-        <v>55.838099999999997</v>
+        <v>70.408100000000005</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
-        <v>0.42269047453703706</v>
+        <v>0.42352900462962967</v>
       </c>
       <c r="B300">
-        <v>56.242699999999999</v>
+        <v>71.148700000000005</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
-        <v>0.42270268518518522</v>
+        <v>0.42354119212962965</v>
       </c>
       <c r="B301">
-        <v>56.198</v>
+        <v>70.774699999999996</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
-        <v>0.42271489583333338</v>
+        <v>0.42355341435185184</v>
       </c>
       <c r="B302">
-        <v>57.1648</v>
+        <v>70.4041</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
-        <v>0.42272708333333336</v>
+        <v>0.4235655787037037</v>
       </c>
       <c r="B303">
-        <v>59.048000000000002</v>
+        <v>70.066299999999998</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
-        <v>0.42273925925925926</v>
+        <v>0.42357769675925921</v>
       </c>
       <c r="B304">
-        <v>60.972200000000001</v>
+        <v>69.972200000000001</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
-        <v>0.42275143518518521</v>
+        <v>0.42358990740740737</v>
       </c>
       <c r="B305">
-        <v>59.875900000000001</v>
+        <v>70.675299999999993</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
-        <v>0.42276362268518519</v>
+        <v>0.4236021527777778</v>
       </c>
       <c r="B306">
-        <v>60.459899999999998</v>
+        <v>69.850200000000001</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
-        <v>0.42277576388888888</v>
+        <v>0.42361438657407413</v>
       </c>
       <c r="B307">
-        <v>61.224499999999999</v>
+        <v>69.603399999999993</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
-        <v>0.42278789351851853</v>
+        <v>0.42362653935185185</v>
       </c>
       <c r="B308">
-        <v>61.334299999999999</v>
+        <v>69.032899999999998</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
-        <v>0.42280010416666663</v>
+        <v>0.42363851851851853</v>
       </c>
       <c r="B309">
-        <v>60.799799999999998</v>
+        <v>70.1006</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
-        <v>0.42281217592592596</v>
+        <v>0.42365070601851856</v>
       </c>
       <c r="B310">
-        <v>62.660699999999999</v>
+        <v>70.516900000000007</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
-        <v>0.42282431712962965</v>
+        <v>0.42366290509259258</v>
       </c>
       <c r="B311">
-        <v>61.563600000000001</v>
+        <v>70.554299999999998</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
-        <v>0.42283649305555554</v>
+        <v>0.42367509259259256</v>
       </c>
       <c r="B312">
-        <v>63.700800000000001</v>
+        <v>69.813500000000005</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
-        <v>0.42284866898148149</v>
+        <v>0.42368723379629625</v>
       </c>
       <c r="B313">
-        <v>63.875599999999999</v>
+        <v>70.089100000000002</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
-        <v>0.42286079861111114</v>
+        <v>0.42369943287037037</v>
       </c>
       <c r="B314">
-        <v>63.561300000000003</v>
+        <v>69.221400000000003</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
-        <v>0.42287289351851853</v>
+        <v>0.42371149305555561</v>
       </c>
       <c r="B315">
-        <v>65.840800000000002</v>
+        <v>71.272099999999995</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
-        <v>0.42288506944444443</v>
+        <v>0.42372369212962963</v>
       </c>
       <c r="B316">
-        <v>64.6297</v>
+        <v>71.365499999999997</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
-        <v>0.42289724537037038</v>
+        <v>0.42373591435185187</v>
       </c>
       <c r="B317">
-        <v>65.685599999999994</v>
+        <v>70.073599999999999</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
-        <v>0.42290940972222224</v>
+        <v>0.42374807870370373</v>
       </c>
       <c r="B318">
-        <v>65.600999999999999</v>
+        <v>70.413899999999998</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
-        <v>0.42292155092592593</v>
+        <v>0.42376027777777775</v>
       </c>
       <c r="B319">
-        <v>65.467500000000001</v>
+        <v>70.380899999999997</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
-        <v>0.42293369212962961</v>
+        <v>0.42377224537037034</v>
       </c>
       <c r="B320">
-        <v>66.1751</v>
+        <v>70.047300000000007</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
-        <v>0.42294581018518512</v>
+        <v>0.42378446759259264</v>
       </c>
       <c r="B321">
-        <v>65.888000000000005</v>
+        <v>70.684600000000003</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
-        <v>0.42295800925925925</v>
+        <v>0.42379659722222218</v>
       </c>
       <c r="B322">
-        <v>65.748599999999996</v>
+        <v>70.814999999999998</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
-        <v>0.42297019675925923</v>
+        <v>0.42380877314814819</v>
       </c>
       <c r="B323">
-        <v>67.024299999999997</v>
+        <v>70.445899999999995</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
-        <v>0.42298238425925927</v>
+        <v>0.42382090277777773</v>
       </c>
       <c r="B324">
-        <v>66.781000000000006</v>
+        <v>70.982799999999997</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
-        <v>0.42299453703703704</v>
+        <v>0.42383307870370368</v>
       </c>
       <c r="B325">
-        <v>66.431299999999993</v>
+        <v>70.581400000000002</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
-        <v>0.42300665509259261</v>
+        <v>0.42384519675925925</v>
       </c>
       <c r="B326">
-        <v>66.351600000000005</v>
+        <v>70.730099999999993</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
-        <v>0.42301872685185182</v>
+        <v>0.42385743055555553</v>
       </c>
       <c r="B327">
-        <v>66.556799999999996</v>
+        <v>71.194699999999997</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
-        <v>0.42303086805555551</v>
+        <v>0.42386965277777783</v>
       </c>
       <c r="B328">
-        <v>67.368899999999996</v>
+        <v>70.531300000000002</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
-        <v>0.42304303240740737</v>
+        <v>0.42388188657407405</v>
       </c>
       <c r="B329">
-        <v>67.006900000000002</v>
+        <v>69.978700000000003</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
-        <v>0.42305517361111106</v>
+        <v>0.4238940625</v>
       </c>
       <c r="B330">
-        <v>68.145200000000003</v>
+        <v>70.8065</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
-        <v>0.42306728009259259</v>
+        <v>0.42390618055555557</v>
       </c>
       <c r="B331">
-        <v>68.001800000000003</v>
+        <v>70.405699999999996</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
-        <v>0.42307943287037042</v>
+        <v>0.42391841435185185</v>
       </c>
       <c r="B332">
-        <v>67.179500000000004</v>
+        <v>69.821100000000001</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
-        <v>0.42309159722222223</v>
+        <v>0.42393064814814813</v>
       </c>
       <c r="B333">
-        <v>67.541300000000007</v>
+        <v>71.144400000000005</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
-        <v>0.42310374999999995</v>
+        <v>0.42394288194444446</v>
       </c>
       <c r="B334">
-        <v>68.154700000000005</v>
+        <v>70.732600000000005</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
-        <v>0.42311590277777777</v>
+        <v>0.42395515046296295</v>
       </c>
       <c r="B335">
-        <v>67.900700000000001</v>
+        <v>70.528599999999997</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
-        <v>0.4231280555555556</v>
+        <v>0.42396723379629631</v>
       </c>
       <c r="B336">
-        <v>68.645499999999998</v>
+        <v>70.751499999999993</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
-        <v>0.42314020833333332</v>
+        <v>0.42397940972222226</v>
       </c>
       <c r="B337">
-        <v>68.649699999999996</v>
+        <v>71.006699999999995</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
-        <v>0.42315237268518519</v>
+        <v>0.42399152777777782</v>
       </c>
       <c r="B338">
-        <v>69.236699999999999</v>
+        <v>70.417400000000001</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
-        <v>0.42316459490740743</v>
+        <v>0.42400372685185184</v>
       </c>
       <c r="B339">
-        <v>68.750399999999999</v>
+        <v>75.333600000000004</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
-        <v>0.42317678240740741</v>
+        <v>0.42401608796296292</v>
       </c>
       <c r="B340">
-        <v>68.791200000000003</v>
+        <v>69.921400000000006</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
-        <v>0.42318893518518513</v>
+        <v>0.42402817129629627</v>
       </c>
       <c r="B341">
-        <v>68.267300000000006</v>
+        <v>69.672200000000004</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
-        <v>0.42320101851851849</v>
+        <v>0.42404039351851847</v>
       </c>
       <c r="B342">
-        <v>69.304000000000002</v>
+        <v>67.753100000000003</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
-        <v>0.42321317129629632</v>
+        <v>0.42405266203703706</v>
       </c>
       <c r="B343">
-        <v>68.458100000000002</v>
+        <v>68.145499999999998</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
-        <v>0.42322532407407404</v>
+        <v>0.42406490740740738</v>
       </c>
       <c r="B344">
-        <v>68.809799999999996</v>
+        <v>67.846900000000005</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
-        <v>0.42323743055555557</v>
+        <v>0.42407708333333338</v>
       </c>
       <c r="B345">
-        <v>69.401399999999995</v>
+        <v>66.230999999999995</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
-        <v>0.42324962962962959</v>
+        <v>0.42408925925925922</v>
       </c>
       <c r="B346">
-        <v>69.8309</v>
+        <v>65.311899999999994</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
-        <v>0.42326170138888891</v>
+        <v>0.42410137731481479</v>
       </c>
       <c r="B347">
-        <v>69.236800000000002</v>
+        <v>65.099000000000004</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
-        <v>0.42327385416666663</v>
+        <v>0.42411362268518521</v>
       </c>
       <c r="B348">
-        <v>68.971500000000006</v>
+        <v>64.694800000000001</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
-        <v>0.42328598379629628</v>
+        <v>0.42412578703703707</v>
       </c>
       <c r="B349">
-        <v>69.123999999999995</v>
+        <v>63.666200000000003</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
-        <v>0.42329813657407411</v>
+        <v>0.42413793981481479</v>
       </c>
       <c r="B350">
-        <v>68.639600000000002</v>
+        <v>64.244</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
-        <v>0.4233102777777778</v>
+        <v>0.42415003472222224</v>
       </c>
       <c r="B351">
-        <v>69.751599999999996</v>
+        <v>63.089799999999997</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
-        <v>0.42332243055555552</v>
+        <v>0.42416222222222222</v>
       </c>
       <c r="B352">
-        <v>69.994</v>
+        <v>62.254199999999997</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
-        <v>0.42333458333333335</v>
+        <v>0.42417442129629629</v>
       </c>
       <c r="B353">
-        <v>69.262799999999999</v>
+        <v>61.315399999999997</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
-        <v>0.42334677083333333</v>
+        <v>0.42418662037037042</v>
       </c>
       <c r="B354">
-        <v>70.205299999999994</v>
+        <v>60.929099999999998</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
-        <v>0.42335894675925928</v>
+        <v>0.4241988078703704</v>
       </c>
       <c r="B355">
-        <v>70.557299999999998</v>
+        <v>60.74</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
-        <v>0.42337114583333335</v>
+        <v>0.42421094907407408</v>
       </c>
       <c r="B356">
-        <v>69.368200000000002</v>
+        <v>59.145099999999999</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
-        <v>0.423383275462963</v>
+        <v>0.424222974537037</v>
       </c>
       <c r="B357">
-        <v>69.952399999999997</v>
+        <v>58.971299999999999</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
-        <v>0.42339538194444443</v>
+        <v>0.42423516203703704</v>
       </c>
       <c r="B358">
-        <v>70.434299999999993</v>
+        <v>58.914099999999998</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
-        <v>0.42340747685185187</v>
+        <v>0.42424733796296299</v>
       </c>
       <c r="B359">
-        <v>71.0381</v>
+        <v>58.100900000000003</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
-        <v>0.42341966435185185</v>
+        <v>0.4242595023148148</v>
       </c>
       <c r="B360">
-        <v>69.557699999999997</v>
+        <v>57.962200000000003</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
-        <v>0.42343182870370372</v>
+        <v>0.42427167824074069</v>
       </c>
       <c r="B361">
-        <v>71.340900000000005</v>
+        <v>57.659799999999997</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
-        <v>0.42344395833333331</v>
+        <v>0.42428371527777775</v>
       </c>
       <c r="B362">
-        <v>70.666700000000006</v>
+        <v>56.534500000000001</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
-        <v>0.42345609953703706</v>
+        <v>0.42429590277777773</v>
       </c>
       <c r="B363">
-        <v>70.4953</v>
+        <v>56.918199999999999</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
-        <v>0.42346829861111113</v>
+        <v>0.42430807870370374</v>
       </c>
       <c r="B364">
-        <v>69.203199999999995</v>
+        <v>55.555900000000001</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
-        <v>0.42348048611111111</v>
+        <v>0.42432016203703704</v>
       </c>
       <c r="B365">
-        <v>70.924499999999995</v>
+        <v>56.183999999999997</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
-        <v>0.4234927083333333</v>
+        <v>0.42433229166666664</v>
       </c>
       <c r="B366">
-        <v>70.471599999999995</v>
+        <v>54.5107</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
-        <v>0.42350490740740743</v>
+        <v>0.42434435185185182</v>
       </c>
       <c r="B367">
-        <v>69.784599999999998</v>
+        <v>53.955800000000004</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
-        <v>0.42351689814814814</v>
+        <v>0.42435655092592595</v>
       </c>
       <c r="B368">
-        <v>70.408100000000005</v>
+        <v>53.45</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
-        <v>0.42352900462962967</v>
+        <v>0.42436872685185184</v>
       </c>
       <c r="B369">
-        <v>71.148700000000005</v>
+        <v>53.694299999999998</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
-        <v>0.42354119212962965</v>
+        <v>0.42438094907407409</v>
       </c>
       <c r="B370">
-        <v>70.774699999999996</v>
+        <v>53.2684</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
-        <v>0.42355341435185184</v>
+        <v>0.42439307870370369</v>
       </c>
       <c r="B371">
-        <v>70.4041</v>
+        <v>52.1387</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
-        <v>0.4235655787037037</v>
+        <v>0.42440527777777781</v>
       </c>
       <c r="B372">
-        <v>70.066299999999998</v>
+        <v>53.179900000000004</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
-        <v>0.42357769675925921</v>
+        <v>0.4244174189814815</v>
       </c>
       <c r="B373">
-        <v>69.972200000000001</v>
+        <v>51.167200000000001</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
-        <v>0.42358990740740737</v>
+        <v>0.42442961805555551</v>
       </c>
       <c r="B374">
-        <v>70.675299999999993</v>
+        <v>51.054499999999997</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
-        <v>0.4236021527777778</v>
+        <v>0.4244418055555555</v>
       </c>
       <c r="B375">
-        <v>69.850200000000001</v>
+        <v>51.291200000000003</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
-        <v>0.42361438657407413</v>
+        <v>0.42445399305555553</v>
       </c>
       <c r="B376">
-        <v>69.603399999999993</v>
+        <v>50.981200000000001</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
-        <v>0.42362653935185185</v>
+        <v>0.42446620370370369</v>
       </c>
       <c r="B377">
-        <v>69.032899999999998</v>
+        <v>49.206400000000002</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
-        <v>0.42363851851851853</v>
+        <v>0.42447832175925931</v>
       </c>
       <c r="B378">
-        <v>70.1006</v>
+        <v>49.0413</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
-        <v>0.42365070601851856</v>
+        <v>0.42449049768518515</v>
       </c>
       <c r="B379">
-        <v>70.516900000000007</v>
+        <v>48.432099999999998</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
-        <v>0.42366290509259258</v>
+        <v>0.42450267361111116</v>
       </c>
       <c r="B380">
-        <v>70.554299999999998</v>
+        <v>47.976199999999999</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
-        <v>0.42367509259259256</v>
+        <v>0.424514849537037</v>
       </c>
       <c r="B381">
-        <v>69.813500000000005</v>
+        <v>47.976900000000001</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
-        <v>0.42368723379629625</v>
+        <v>0.424527025462963</v>
       </c>
       <c r="B382">
-        <v>70.089100000000002</v>
+        <v>48.287300000000002</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
-        <v>0.42369943287037037</v>
+        <v>0.42453914351851851</v>
       </c>
       <c r="B383">
-        <v>69.221400000000003</v>
+        <v>46.545999999999999</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
-        <v>0.42371149305555561</v>
+        <v>0.42455138888888888</v>
       </c>
       <c r="B384">
-        <v>71.272099999999995</v>
+        <v>46.656100000000002</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
-        <v>0.42372369212962963</v>
+        <v>0.42456355324074069</v>
       </c>
       <c r="B385">
-        <v>71.365499999999997</v>
+        <v>45.865699999999997</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
-        <v>0.42373591435185187</v>
+        <v>0.42457574074074073</v>
       </c>
       <c r="B386">
-        <v>70.073599999999999</v>
+        <v>45.064399999999999</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
-        <v>0.42374807870370373</v>
+        <v>0.42458793981481485</v>
       </c>
       <c r="B387">
-        <v>70.413899999999998</v>
+        <v>45.018999999999998</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
-        <v>0.42376027777777775</v>
+        <v>0.42460005787037036</v>
       </c>
       <c r="B388">
-        <v>70.380899999999997</v>
+        <v>45.468800000000002</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
-        <v>0.42377224537037034</v>
+        <v>0.42461222222222222</v>
       </c>
       <c r="B389">
-        <v>70.047300000000007</v>
+        <v>44.273400000000002</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
-        <v>0.42378446759259264</v>
+        <v>0.42462436342592591</v>
       </c>
       <c r="B390">
-        <v>70.684600000000003</v>
+        <v>44.495600000000003</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
-        <v>0.42379659722222218</v>
+        <v>0.42463651620370374</v>
       </c>
       <c r="B391">
-        <v>70.814999999999998</v>
+        <v>43.984299999999998</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
-        <v>0.42380877314814819</v>
+        <v>0.42464868055555555</v>
       </c>
       <c r="B392">
-        <v>70.445899999999995</v>
+        <v>43.104199999999999</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
-        <v>0.42382090277777773</v>
+        <v>0.42466079861111111</v>
       </c>
       <c r="B393">
-        <v>70.982799999999997</v>
+        <v>43.355200000000004</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
-        <v>0.42383307870370368</v>
+        <v>0.42467291666666662</v>
       </c>
       <c r="B394">
-        <v>70.581400000000002</v>
+        <v>42.3001</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
-        <v>0.42384519675925925</v>
+        <v>0.42468509259259263</v>
       </c>
       <c r="B395">
-        <v>70.730099999999993</v>
+        <v>41.701500000000003</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
-        <v>0.42385743055555553</v>
+        <v>0.42469722222222217</v>
       </c>
       <c r="B396">
-        <v>71.194699999999997</v>
+        <v>41.478200000000001</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
-        <v>0.42386965277777783</v>
+        <v>0.4247094212962963</v>
       </c>
       <c r="B397">
-        <v>70.531300000000002</v>
+        <v>41.938000000000002</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
-        <v>0.42388188657407405</v>
+        <v>0.42472159722222225</v>
       </c>
       <c r="B398">
-        <v>69.978700000000003</v>
+        <v>40.506999999999998</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
-        <v>0.4238940625</v>
+        <v>0.42473374999999997</v>
       </c>
       <c r="B399">
-        <v>70.8065</v>
+        <v>40.521599999999999</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
-        <v>0.42390618055555557</v>
+        <v>0.42474596064814812</v>
       </c>
       <c r="B400">
-        <v>70.405699999999996</v>
+        <v>40.479199999999999</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
-        <v>0.42391841435185185</v>
+        <v>0.42475819444444446</v>
       </c>
       <c r="B401">
-        <v>69.821100000000001</v>
+        <v>39.2224</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
-        <v>0.42393064814814813</v>
+        <v>0.42477034722222223</v>
       </c>
       <c r="B402">
-        <v>71.144400000000005</v>
+        <v>39.282200000000003</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
-        <v>0.42394288194444446</v>
+        <v>0.4247825462962963</v>
       </c>
       <c r="B403">
-        <v>70.732600000000005</v>
+        <v>38.030900000000003</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
-        <v>0.42395515046296295</v>
+        <v>0.42479469907407408</v>
       </c>
       <c r="B404">
-        <v>70.528599999999997</v>
+        <v>38.599499999999999</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
-        <v>0.42396723379629631</v>
+        <v>0.42480685185185185</v>
       </c>
       <c r="B405">
-        <v>70.751499999999993</v>
+        <v>38.885199999999998</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
-        <v>0.42397940972222226</v>
+        <v>0.42481896990740736</v>
       </c>
       <c r="B406">
-        <v>71.006699999999995</v>
+        <v>37.3992</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
-        <v>0.42399152777777782</v>
+        <v>0.42483116898148149</v>
       </c>
       <c r="B407">
-        <v>70.417400000000001</v>
+        <v>37.500300000000003</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
-        <v>0.42400372685185184</v>
+        <v>0.42484340277777777</v>
       </c>
       <c r="B408">
-        <v>75.333600000000004</v>
+        <v>37.482500000000002</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
-        <v>0.42401608796296292</v>
+        <v>0.42485539351851853</v>
       </c>
       <c r="B409">
-        <v>69.921400000000006</v>
+        <v>37.336599999999997</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
-        <v>0.42402817129629627</v>
+        <v>0.42486752314814813</v>
       </c>
       <c r="B410">
-        <v>69.672200000000004</v>
+        <v>35.581400000000002</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
-        <v>0.42404039351851847</v>
+        <v>0.42487974537037038</v>
       </c>
       <c r="B411">
-        <v>67.753100000000003</v>
+        <v>36.401499999999999</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
-        <v>0.42405266203703706</v>
+        <v>0.42489193287037036</v>
       </c>
       <c r="B412">
-        <v>68.145499999999998</v>
+        <v>37.284100000000002</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
-        <v>0.42406490740740738</v>
+        <v>0.42490409722222222</v>
       </c>
       <c r="B413">
-        <v>67.846900000000005</v>
+        <v>34.883699999999997</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
-        <v>0.42407708333333338</v>
+        <v>0.42491621527777779</v>
       </c>
       <c r="B414">
-        <v>66.230999999999995</v>
+        <v>35.582700000000003</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
-        <v>0.42408925925925922</v>
+        <v>0.42492837962962959</v>
       </c>
       <c r="B415">
-        <v>65.311899999999994</v>
+        <v>34.145099999999999</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
-        <v>0.42410137731481479</v>
+        <v>0.42494061342592593</v>
       </c>
       <c r="B416">
-        <v>65.099000000000004</v>
+        <v>34.614199999999997</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
-        <v>0.42411362268518521</v>
+        <v>0.42495280092592591</v>
       </c>
       <c r="B417">
-        <v>64.694800000000001</v>
+        <v>34.043700000000001</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
-        <v>0.42412578703703707</v>
+        <v>0.42496501157407407</v>
       </c>
       <c r="B418">
-        <v>63.666200000000003</v>
+        <v>34.385899999999999</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
-        <v>0.42413793981481479</v>
+        <v>0.42497722222222223</v>
       </c>
       <c r="B419">
-        <v>64.244</v>
+        <v>33.554299999999998</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
-        <v>0.42415003472222224</v>
+        <v>0.424989375</v>
       </c>
       <c r="B420">
-        <v>63.089799999999997</v>
+        <v>33.673499999999997</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
-        <v>0.42416222222222222</v>
+        <v>0.42500160879629634</v>
       </c>
       <c r="B421">
-        <v>62.254199999999997</v>
+        <v>33.026200000000003</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
-        <v>0.42417442129629629</v>
+        <v>0.42501383101851853</v>
       </c>
       <c r="B422">
-        <v>61.315399999999997</v>
+        <v>33.074300000000001</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
-        <v>0.42418662037037042</v>
+        <v>0.42502592592592592</v>
       </c>
       <c r="B423">
-        <v>60.929099999999998</v>
+        <v>33.381999999999998</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
-        <v>0.4241988078703704</v>
+        <v>0.42503813657407408</v>
       </c>
       <c r="B424">
-        <v>60.74</v>
+        <v>33.142099999999999</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
-        <v>0.42421094907407408</v>
+        <v>0.42505023148148147</v>
       </c>
       <c r="B425">
-        <v>59.145099999999999</v>
+        <v>31.0167</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
-        <v>0.424222974537037</v>
+        <v>0.42506247685185189</v>
       </c>
       <c r="B426">
-        <v>58.971299999999999</v>
+        <v>30.869399999999999</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
-        <v>0.42423516203703704</v>
+        <v>0.42507468749999999</v>
       </c>
       <c r="B427">
-        <v>58.914099999999998</v>
+        <v>31.295100000000001</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
-        <v>0.42424733796296299</v>
+        <v>0.42508687500000003</v>
       </c>
       <c r="B428">
-        <v>58.100900000000003</v>
+        <v>32.125799999999998</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
-        <v>0.4242595023148148</v>
+        <v>0.42509910879629631</v>
       </c>
       <c r="B429">
-        <v>57.962200000000003</v>
+        <v>31.303999999999998</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
-        <v>0.42427167824074069</v>
+        <v>0.42511108796296293</v>
       </c>
       <c r="B430">
-        <v>57.659799999999997</v>
+        <v>30.872800000000002</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
-        <v>0.42428371527777775</v>
+        <v>0.42512331018518523</v>
       </c>
       <c r="B431">
-        <v>56.534500000000001</v>
+        <v>30.494199999999999</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
-        <v>0.42429590277777773</v>
+        <v>0.42513552083333334</v>
       </c>
       <c r="B432">
-        <v>56.918199999999999</v>
+        <v>31.094899999999999</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
-        <v>0.42430807870370374</v>
+        <v>0.42514777777777774</v>
       </c>
       <c r="B433">
-        <v>55.555900000000001</v>
+        <v>30.4346</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
-        <v>0.42432016203703704</v>
+        <v>0.42515996527777783</v>
       </c>
       <c r="B434">
-        <v>56.183999999999997</v>
+        <v>29.704499999999999</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
-        <v>0.42433229166666664</v>
+        <v>0.42517202546296295</v>
       </c>
       <c r="B435">
-        <v>54.5107</v>
+        <v>29.464700000000001</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
-        <v>0.42434435185185182</v>
+        <v>0.42518416666666664</v>
       </c>
       <c r="B436">
-        <v>53.955800000000004</v>
+        <v>28.7852</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
-        <v>0.42435655092592595</v>
+        <v>0.42519629629629629</v>
       </c>
       <c r="B437">
-        <v>53.45</v>
+        <v>28.598700000000001</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
-        <v>0.42436872685185184</v>
+        <v>0.42520851851851854</v>
       </c>
       <c r="B438">
-        <v>53.694299999999998</v>
+        <v>28.6615</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
-        <v>0.42438094907407409</v>
+        <v>0.42522065972222223</v>
       </c>
       <c r="B439">
-        <v>53.2684</v>
+        <v>27.314699999999998</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
-        <v>0.42439307870370369</v>
+        <v>0.42523287037037039</v>
       </c>
       <c r="B440">
-        <v>52.1387</v>
+        <v>27.541699999999999</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
-        <v>0.42440527777777781</v>
+        <v>0.4252448958333333</v>
       </c>
       <c r="B441">
-        <v>53.179900000000004</v>
+        <v>28.341000000000001</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
-        <v>0.4244174189814815</v>
+        <v>0.42525704861111113</v>
       </c>
       <c r="B442">
-        <v>51.167200000000001</v>
+        <v>27.145499999999998</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
-        <v>0.42442961805555551</v>
+        <v>0.42526922453703703</v>
       </c>
       <c r="B443">
-        <v>51.054499999999997</v>
+        <v>25.7163</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
-        <v>0.4244418055555555</v>
+        <v>0.42528138888888889</v>
       </c>
       <c r="B444">
-        <v>51.291200000000003</v>
+        <v>27.249400000000001</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
-        <v>0.42445399305555553</v>
+        <v>0.42529358796296296</v>
       </c>
       <c r="B445">
-        <v>50.981200000000001</v>
+        <v>26.7456</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
-        <v>0.42446620370370369</v>
+        <v>0.42530567129629632</v>
       </c>
       <c r="B446">
-        <v>49.206400000000002</v>
+        <v>25.981000000000002</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
-        <v>0.42447832175925931</v>
+        <v>0.4253178125</v>
       </c>
       <c r="B447">
-        <v>49.0413</v>
+        <v>26.282900000000001</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
-        <v>0.42449049768518515</v>
+        <v>0.42532997685185187</v>
       </c>
       <c r="B448">
-        <v>48.432099999999998</v>
+        <v>25.648199999999999</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
-        <v>0.42450267361111116</v>
+        <v>0.42534211805555555</v>
       </c>
       <c r="B449">
-        <v>47.976199999999999</v>
+        <v>26.593399999999999</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
-        <v>0.424514849537037</v>
+        <v>0.4253542476851852</v>
       </c>
       <c r="B450">
-        <v>47.976900000000001</v>
+        <v>25.568999999999999</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
-        <v>0.424527025462963</v>
+        <v>0.42536626157407403</v>
       </c>
       <c r="B451">
-        <v>48.287300000000002</v>
+        <v>24.1675</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
-        <v>0.42453914351851851</v>
+        <v>0.42537843749999998</v>
       </c>
       <c r="B452">
-        <v>46.545999999999999</v>
+        <v>25.234999999999999</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
-        <v>0.42455138888888888</v>
+        <v>0.42539063657407405</v>
       </c>
       <c r="B453">
-        <v>46.656100000000002</v>
+        <v>24.757000000000001</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
-        <v>0.42456355324074069</v>
+        <v>0.42540282407407404</v>
       </c>
       <c r="B454">
-        <v>45.865699999999997</v>
+        <v>25.1526</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
-        <v>0.42457574074074073</v>
+        <v>0.42541499999999999</v>
       </c>
       <c r="B455">
-        <v>45.064399999999999</v>
+        <v>24.252400000000002</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
-        <v>0.42458793981481485</v>
+        <v>0.42542706018518522</v>
       </c>
       <c r="B456">
-        <v>45.018999999999998</v>
+        <v>24.645499999999998</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
-        <v>0.42460005787037036</v>
+        <v>0.42543921296296294</v>
       </c>
       <c r="B457">
-        <v>45.468800000000002</v>
+        <v>23.720600000000001</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
-        <v>0.42461222222222222</v>
+        <v>0.42545135416666668</v>
       </c>
       <c r="B458">
-        <v>44.273400000000002</v>
+        <v>23.6325</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
-        <v>0.42462436342592591</v>
+        <v>0.42546349537037037</v>
       </c>
       <c r="B459">
-        <v>44.495600000000003</v>
+        <v>23.750299999999999</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
-        <v>0.42463651620370374</v>
+        <v>0.42547568287037041</v>
       </c>
       <c r="B460">
-        <v>43.984299999999998</v>
+        <v>23.968499999999999</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
-        <v>0.42464868055555555</v>
+        <v>0.42548787037037039</v>
       </c>
       <c r="B461">
-        <v>43.104199999999999</v>
+        <v>23.327400000000001</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
-        <v>0.42466079861111111</v>
+        <v>0.42549996527777778</v>
       </c>
       <c r="B462">
-        <v>43.355200000000004</v>
+        <v>22.098299999999998</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
-        <v>0.42467291666666662</v>
+        <v>0.42551215277777776</v>
       </c>
       <c r="B463">
-        <v>42.3001</v>
+        <v>23.051600000000001</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
-        <v>0.42468509259259263</v>
+        <v>0.42552430555555559</v>
       </c>
       <c r="B464">
-        <v>41.701500000000003</v>
+        <v>22.039200000000001</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
-        <v>0.42469722222222217</v>
+        <v>0.42553649305555558</v>
       </c>
       <c r="B465">
-        <v>41.478200000000001</v>
+        <v>22.361899999999999</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
-        <v>0.4247094212962963</v>
+        <v>0.42554865740740744</v>
       </c>
       <c r="B466">
-        <v>41.938000000000002</v>
+        <v>22.100200000000001</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
-        <v>0.42472159722222225</v>
+        <v>0.42556079861111112</v>
       </c>
       <c r="B467">
-        <v>40.506999999999998</v>
+        <v>22.276800000000001</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
-        <v>0.42473374999999997</v>
+        <v>0.42557296296296299</v>
       </c>
       <c r="B468">
-        <v>40.521599999999999</v>
+        <v>21.594200000000001</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
-        <v>0.42474596064814812</v>
+        <v>0.42558515046296297</v>
       </c>
       <c r="B469">
-        <v>40.479199999999999</v>
+        <v>21.909300000000002</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
-        <v>0.42475819444444446</v>
+        <v>0.42559732638888886</v>
       </c>
       <c r="B470">
-        <v>39.2224</v>
+        <v>21.741099999999999</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
-        <v>0.42477034722222223</v>
+        <v>0.42560946759259261</v>
       </c>
       <c r="B471">
-        <v>39.282200000000003</v>
+        <v>21.039200000000001</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
-        <v>0.4247825462962963</v>
+        <v>0.42562153935185187</v>
       </c>
       <c r="B472">
-        <v>38.030900000000003</v>
+        <v>20.233699999999999</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
-        <v>0.42479469907407408</v>
+        <v>0.42563368055555556</v>
       </c>
       <c r="B473">
-        <v>38.599499999999999</v>
+        <v>20.979800000000001</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
-        <v>0.42480685185185185</v>
+        <v>0.42564586805555554</v>
       </c>
       <c r="B474">
-        <v>38.885199999999998</v>
+        <v>21.568100000000001</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
-        <v>0.42481896990740736</v>
+        <v>0.4256579976851852</v>
       </c>
       <c r="B475">
-        <v>37.3992</v>
+        <v>21.0732</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
-        <v>0.42483116898148149</v>
+        <v>0.42567018518518523</v>
       </c>
       <c r="B476">
-        <v>37.500300000000003</v>
+        <v>19.8264</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
-        <v>0.42484340277777777</v>
+        <v>0.42568230324074074</v>
       </c>
       <c r="B477">
-        <v>37.482500000000002</v>
+        <v>21.085599999999999</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
-        <v>0.42485539351851853</v>
+        <v>0.42569450231481476</v>
       </c>
       <c r="B478">
-        <v>37.336599999999997</v>
+        <v>20.116199999999999</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
-        <v>0.42486752314814813</v>
+        <v>0.4257066435185185</v>
       </c>
       <c r="B479">
-        <v>35.581400000000002</v>
+        <v>19.1069</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
-        <v>0.42487974537037038</v>
+        <v>0.42571866898148147</v>
       </c>
       <c r="B480">
-        <v>36.401499999999999</v>
+        <v>19.967199999999998</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
-        <v>0.42489193287037036</v>
+        <v>0.42573082175925919</v>
       </c>
       <c r="B481">
-        <v>37.284100000000002</v>
+        <v>19.554600000000001</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
-        <v>0.42490409722222222</v>
+        <v>0.42574292824074073</v>
       </c>
       <c r="B482">
-        <v>34.883699999999997</v>
+        <v>19.2654</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
-        <v>0.42491621527777779</v>
+        <v>0.42575505787037038</v>
       </c>
       <c r="B483">
-        <v>35.582700000000003</v>
+        <v>19.6965</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
-        <v>0.42492837962962959</v>
+        <v>0.42576712962962959</v>
       </c>
       <c r="B484">
-        <v>34.145099999999999</v>
+        <v>19.1036</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
-        <v>0.42494061342592593</v>
+        <v>0.42577923611111113</v>
       </c>
       <c r="B485">
-        <v>34.614199999999997</v>
+        <v>18.288699999999999</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
-        <v>0.42495280092592591</v>
+        <v>0.42579141203703702</v>
       </c>
       <c r="B486">
-        <v>34.043700000000001</v>
+        <v>20.1113</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
-        <v>0.42496501157407407</v>
+        <v>0.42580350694444447</v>
       </c>
       <c r="B487">
-        <v>34.385899999999999</v>
+        <v>19.111699999999999</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
-        <v>0.42497722222222223</v>
+        <v>0.42581556712962959</v>
       </c>
       <c r="B488">
-        <v>33.554299999999998</v>
+        <v>17.444400000000002</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
-        <v>0.424989375</v>
+        <v>0.42582770833333339</v>
       </c>
       <c r="B489">
-        <v>33.673499999999997</v>
+        <v>17.5718</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
-        <v>0.42500160879629634</v>
+        <v>0.42583988425925923</v>
       </c>
       <c r="B490">
-        <v>33.026200000000003</v>
+        <v>19.073699999999999</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
-        <v>0.42501383101851853</v>
+        <v>0.42585208333333335</v>
       </c>
       <c r="B491">
-        <v>33.074300000000001</v>
+        <v>18.877800000000001</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
-        <v>0.42502592592592592</v>
+        <v>0.42586424768518522</v>
       </c>
       <c r="B492">
-        <v>33.381999999999998</v>
+        <v>18.6877</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
-        <v>0.42503813657407408</v>
+        <v>0.4258763425925926</v>
       </c>
       <c r="B493">
-        <v>33.142099999999999</v>
+        <v>18.276399999999999</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
-        <v>0.42505023148148147</v>
+        <v>0.4258885185185185</v>
       </c>
       <c r="B494">
-        <v>31.0167</v>
+        <v>18.098800000000001</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
-        <v>0.42506247685185189</v>
+        <v>0.42590068287037042</v>
       </c>
       <c r="B495">
-        <v>30.869399999999999</v>
+        <v>17.890899999999998</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
-        <v>0.42507468749999999</v>
+        <v>0.4259128240740741</v>
       </c>
       <c r="B496">
-        <v>31.295100000000001</v>
+        <v>17.389600000000002</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
-        <v>0.42508687500000003</v>
+        <v>0.42592497685185182</v>
       </c>
       <c r="B497">
-        <v>32.125799999999998</v>
+        <v>17.128599999999999</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
-        <v>0.42509910879629631</v>
+        <v>0.42593710648148148</v>
       </c>
       <c r="B498">
-        <v>31.303999999999998</v>
+        <v>17.104099999999999</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
-        <v>0.42511108796296293</v>
+        <v>0.42594918981481483</v>
       </c>
       <c r="B499">
-        <v>30.872800000000002</v>
+        <v>16.6523</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
-        <v>0.42512331018518523</v>
+        <v>0.42596127314814813</v>
       </c>
       <c r="B500">
-        <v>30.494199999999999</v>
+        <v>16.578199999999999</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
-        <v>0.42513552083333334</v>
+        <v>0.42597340277777779</v>
       </c>
       <c r="B501">
-        <v>31.094899999999999</v>
+        <v>16.970199999999998</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
-        <v>0.42514777777777774</v>
+        <v>0.42598560185185186</v>
       </c>
       <c r="B502">
-        <v>30.4346</v>
+        <v>17.052800000000001</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
-        <v>0.42515996527777783</v>
+        <v>0.42599773148148146</v>
       </c>
       <c r="B503">
-        <v>29.704499999999999</v>
+        <v>16.541599999999999</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
-        <v>0.42517202546296295</v>
+        <v>0.42600983796296299</v>
       </c>
       <c r="B504">
-        <v>29.464700000000001</v>
+        <v>15.452</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
-        <v>0.42518416666666664</v>
+        <v>0.42602197916666668</v>
       </c>
       <c r="B505">
-        <v>28.7852</v>
+        <v>15.4986</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
-        <v>0.42519629629629629</v>
+        <v>0.42603408564814815</v>
       </c>
       <c r="B506">
-        <v>28.598700000000001</v>
+        <v>14.7919</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
-        <v>0.42520851851851854</v>
+        <v>0.42604626157407405</v>
       </c>
       <c r="B507">
-        <v>28.6615</v>
+        <v>15.7879</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
-        <v>0.42522065972222223</v>
+        <v>0.4260584375</v>
       </c>
       <c r="B508">
-        <v>27.314699999999998</v>
+        <v>15.7164</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
-        <v>0.42523287037037039</v>
+        <v>0.42607050925925927</v>
       </c>
       <c r="B509">
-        <v>27.541699999999999</v>
+        <v>15.9307</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
-        <v>0.4252448958333333</v>
+        <v>0.42608263888888892</v>
       </c>
       <c r="B510">
-        <v>28.341000000000001</v>
+        <v>15.0448</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
-        <v>0.42525704861111113</v>
+        <v>0.42609479166666664</v>
       </c>
       <c r="B511">
-        <v>27.145499999999998</v>
+        <v>16.283100000000001</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
-        <v>0.42526922453703703</v>
+        <v>0.42610686342592596</v>
       </c>
       <c r="B512">
-        <v>25.7163</v>
+        <v>14.991400000000001</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
-        <v>0.42528138888888889</v>
+        <v>0.4261190393518518</v>
       </c>
       <c r="B513">
-        <v>27.249400000000001</v>
+        <v>14.085699999999999</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
-        <v>0.42529358796296296</v>
+        <v>0.4261311342592593</v>
       </c>
       <c r="B514">
-        <v>26.7456</v>
+        <v>14.9983</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
-        <v>0.42530567129629632</v>
+        <v>0.42614324074074073</v>
       </c>
       <c r="B515">
-        <v>25.981000000000002</v>
+        <v>14.240600000000001</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
-        <v>0.4253178125</v>
+        <v>0.42615539351851855</v>
       </c>
       <c r="B516">
-        <v>26.282900000000001</v>
+        <v>14.846299999999999</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
-        <v>0.42532997685185187</v>
+        <v>0.42616753472222224</v>
       </c>
       <c r="B517">
-        <v>25.648199999999999</v>
+        <v>14.8171</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
-        <v>0.42534211805555555</v>
+        <v>0.42617969907407405</v>
       </c>
       <c r="B518">
-        <v>26.593399999999999</v>
+        <v>15.2394</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
-        <v>0.4253542476851852</v>
+        <v>0.42619186342592591</v>
       </c>
       <c r="B519">
-        <v>25.568999999999999</v>
+        <v>14.2392</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
-        <v>0.42536626157407403</v>
+        <v>0.426203912037037</v>
       </c>
       <c r="B520">
-        <v>24.1675</v>
+        <v>15.1462</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
-        <v>0.42537843749999998</v>
+        <v>0.42621611111111113</v>
       </c>
       <c r="B521">
-        <v>25.234999999999999</v>
+        <v>13.8132</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
-        <v>0.42539063657407405</v>
+        <v>0.42622831018518514</v>
       </c>
       <c r="B522">
-        <v>24.757000000000001</v>
+        <v>13.555199999999999</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
-        <v>0.42540282407407404</v>
+        <v>0.42624046296296297</v>
       </c>
       <c r="B523">
-        <v>25.1526</v>
+        <v>14.250999999999999</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
-        <v>0.42541499999999999</v>
+        <v>0.4262526620370371</v>
       </c>
       <c r="B524">
-        <v>24.252400000000002</v>
+        <v>14.2057</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
-        <v>0.42542706018518522</v>
+        <v>0.42626473379629631</v>
       </c>
       <c r="B525">
-        <v>24.645499999999998</v>
+        <v>13.044700000000001</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
-        <v>0.42543921296296294</v>
+        <v>0.4262768287037037</v>
       </c>
       <c r="B526">
-        <v>23.720600000000001</v>
+        <v>13.542299999999999</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
-        <v>0.42545135416666668</v>
+        <v>0.42628902777777783</v>
       </c>
       <c r="B527">
-        <v>23.6325</v>
+        <v>14.948600000000001</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
-        <v>0.42546349537037037</v>
+        <v>0.42630123842592599</v>
       </c>
       <c r="B528">
-        <v>23.750299999999999</v>
+        <v>13.0976</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
-        <v>0.42547568287037041</v>
+        <v>0.4263134837962963</v>
       </c>
       <c r="B529">
-        <v>23.968499999999999</v>
+        <v>12.6753</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
-        <v>0.42548787037037039</v>
+        <v>0.42632556712962966</v>
       </c>
       <c r="B530">
-        <v>23.327400000000001</v>
+        <v>12.839499999999999</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
-        <v>0.42549996527777778</v>
+        <v>0.42633773148148152</v>
       </c>
       <c r="B531">
-        <v>22.098299999999998</v>
+        <v>13.194000000000001</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
-        <v>0.42551215277777776</v>
+        <v>0.4263499189814815</v>
       </c>
       <c r="B532">
-        <v>23.051600000000001</v>
+        <v>12.479200000000001</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
-        <v>0.42552430555555559</v>
+        <v>0.42636210648148148</v>
       </c>
       <c r="B533">
-        <v>22.039200000000001</v>
+        <v>11.839</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
-        <v>0.42553649305555558</v>
+        <v>0.42637430555555556</v>
       </c>
       <c r="B534">
-        <v>22.361899999999999</v>
+        <v>11.564299999999999</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
-        <v>0.42554865740740744</v>
+        <v>0.42638648148148151</v>
       </c>
       <c r="B535">
-        <v>22.100200000000001</v>
+        <v>12.856</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
-        <v>0.42556079861111112</v>
+        <v>0.42639868055555552</v>
       </c>
       <c r="B536">
-        <v>22.276800000000001</v>
+        <v>13.008699999999999</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
-        <v>0.42557296296296299</v>
+        <v>0.42641071759259258</v>
       </c>
       <c r="B537">
-        <v>21.594200000000001</v>
+        <v>12.6203</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
-        <v>0.42558515046296297</v>
+        <v>0.42642283564814809</v>
       </c>
       <c r="B538">
-        <v>21.909300000000002</v>
+        <v>12.386699999999999</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
-        <v>0.42559732638888886</v>
+        <v>0.42643503472222222</v>
       </c>
       <c r="B539">
-        <v>21.741099999999999</v>
+        <v>12.2803</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
-        <v>0.42560946759259261</v>
+        <v>0.42644716435185187</v>
       </c>
       <c r="B540">
-        <v>21.039200000000001</v>
+        <v>12.848000000000001</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
-        <v>0.42562153935185187</v>
+        <v>0.42645934027777777</v>
       </c>
       <c r="B541">
-        <v>20.233699999999999</v>
+        <v>12.980399999999999</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
-        <v>0.42563368055555556</v>
+        <v>0.42647155092592592</v>
       </c>
       <c r="B542">
-        <v>20.979800000000001</v>
+        <v>12.911099999999999</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
-        <v>0.42564586805555554</v>
+        <v>0.42648377314814812</v>
       </c>
       <c r="B543">
-        <v>21.568100000000001</v>
+        <v>11.8253</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
-        <v>0.4256579976851852</v>
+        <v>0.42649600694444439</v>
       </c>
       <c r="B544">
-        <v>21.0732</v>
+        <v>12.4312</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
-        <v>0.42567018518518523</v>
+        <v>0.42650814814814808</v>
       </c>
       <c r="B545">
-        <v>19.8264</v>
+        <v>12.2697</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
-        <v>0.42568230324074074</v>
+        <v>0.42652028935185188</v>
       </c>
       <c r="B546">
-        <v>21.085599999999999</v>
+        <v>11.392300000000001</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
-        <v>0.42569450231481476</v>
+        <v>0.42653241898148148</v>
       </c>
       <c r="B547">
-        <v>20.116199999999999</v>
+        <v>10.9315</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
-        <v>0.4257066435185185</v>
+        <v>0.42654465277777776</v>
       </c>
       <c r="B548">
-        <v>19.1069</v>
+        <v>11.424099999999999</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
-        <v>0.42571866898148147</v>
+        <v>0.42655689814814818</v>
       </c>
       <c r="B549">
-        <v>19.967199999999998</v>
+        <v>10.964499999999999</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
-        <v>0.42573082175925919</v>
+        <v>0.42656912037037037</v>
       </c>
       <c r="B550">
-        <v>19.554600000000001</v>
+        <v>11.5059</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
-        <v>0.42574292824074073</v>
+        <v>0.4265812268518519</v>
       </c>
       <c r="B551">
-        <v>19.2654</v>
+        <v>11.425599999999999</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
-        <v>0.42575505787037038</v>
+        <v>0.42659343750000001</v>
       </c>
       <c r="B552">
-        <v>19.6965</v>
+        <v>10.772</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
-        <v>0.42576712962962959</v>
+        <v>0.42660559027777778</v>
       </c>
       <c r="B553">
-        <v>19.1036</v>
+        <v>11.7159</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
-        <v>0.42577923611111113</v>
+        <v>0.42661780092592588</v>
       </c>
       <c r="B554">
-        <v>18.288699999999999</v>
+        <v>10.7302</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
-        <v>0.42579141203703702</v>
+        <v>0.42662998842592592</v>
       </c>
       <c r="B555">
-        <v>20.1113</v>
+        <v>9.9213100000000001</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
-        <v>0.42580350694444447</v>
+        <v>0.42664219907407408</v>
       </c>
       <c r="B556">
-        <v>19.111699999999999</v>
+        <v>10.857699999999999</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
-        <v>0.42581556712962959</v>
+        <v>0.42665435185185185</v>
       </c>
       <c r="B557">
-        <v>17.444400000000002</v>
+        <v>10.447900000000001</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
-        <v>0.42582770833333339</v>
+        <v>0.42666653935185189</v>
       </c>
       <c r="B558">
-        <v>17.5718</v>
+        <v>9.8258100000000006</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
-        <v>0.42583988425925923</v>
+        <v>0.4266786574074074</v>
       </c>
       <c r="B559">
-        <v>19.073699999999999</v>
+        <v>10.715999999999999</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
-        <v>0.42585208333333335</v>
+        <v>0.42669085648148142</v>
       </c>
       <c r="B560">
-        <v>18.877800000000001</v>
+        <v>10.946400000000001</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
-        <v>0.42586424768518522</v>
+        <v>0.42670296296296295</v>
       </c>
       <c r="B561">
-        <v>18.6877</v>
+        <v>9.7210800000000006</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
-        <v>0.4258763425925926</v>
+        <v>0.42671493055555554</v>
       </c>
       <c r="B562">
-        <v>18.276399999999999</v>
+        <v>10.569000000000001</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
-        <v>0.4258885185185185</v>
+        <v>0.42672707175925922</v>
       </c>
       <c r="B563">
-        <v>18.098800000000001</v>
+        <v>10.114000000000001</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
-        <v>0.42590068287037042</v>
+        <v>0.42673928240740738</v>
       </c>
       <c r="B564">
-        <v>17.890899999999998</v>
+        <v>9.9022000000000006</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
-        <v>0.4259128240740741</v>
+        <v>0.42675148148148151</v>
       </c>
       <c r="B565">
-        <v>17.389600000000002</v>
+        <v>9.7584800000000005</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
-        <v>0.42592497685185182</v>
+        <v>0.4267636574074074</v>
       </c>
       <c r="B566">
-        <v>17.128599999999999</v>
+        <v>9.1715900000000001</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
-        <v>0.42593710648148148</v>
+        <v>0.42677576388888888</v>
       </c>
       <c r="B567">
-        <v>17.104099999999999</v>
+        <v>9.7157099999999996</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
-        <v>0.42594918981481483</v>
+        <v>0.42678793981481483</v>
       </c>
       <c r="B568">
-        <v>16.6523</v>
+        <v>9.9916</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
-        <v>0.42596127314814813</v>
+        <v>0.42679998842592592</v>
       </c>
       <c r="B569">
-        <v>16.578199999999999</v>
+        <v>9.5641300000000005</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
-        <v>0.42597340277777779</v>
+        <v>0.42681212962962961</v>
       </c>
       <c r="B570">
-        <v>16.970199999999998</v>
+        <v>10.6151</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
-        <v>0.42598560185185186</v>
+        <v>0.42682421296296297</v>
       </c>
       <c r="B571">
-        <v>17.052800000000001</v>
+        <v>10.224</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
-        <v>0.42599773148148146</v>
+        <v>0.42683621527777776</v>
       </c>
       <c r="B572">
-        <v>16.541599999999999</v>
+        <v>9.6459499999999991</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
-        <v>0.42600983796296299</v>
+        <v>0.42684839120370371</v>
       </c>
       <c r="B573">
-        <v>15.452</v>
+        <v>8.6899800000000003</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
-        <v>0.42602197916666668</v>
+        <v>0.42686050925925928</v>
       </c>
       <c r="B574">
-        <v>15.4986</v>
+        <v>9.5718300000000003</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
-        <v>0.42603408564814815</v>
+        <v>0.42687267361111109</v>
       </c>
       <c r="B575">
-        <v>14.7919</v>
+        <v>9.2374200000000002</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
-        <v>0.42604626157407405</v>
+        <v>0.42688478009259262</v>
       </c>
       <c r="B576">
-        <v>15.7879</v>
+        <v>10.3019</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
-        <v>0.4260584375</v>
+        <v>0.42689693287037034</v>
       </c>
       <c r="B577">
-        <v>15.7164</v>
+        <v>9.3534299999999995</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
-        <v>0.42607050925925927</v>
+        <v>0.42690898148148149</v>
       </c>
       <c r="B578">
-        <v>15.9307</v>
+        <v>9.6966400000000004</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
-        <v>0.42608263888888892</v>
+        <v>0.42692103009259258</v>
       </c>
       <c r="B579">
-        <v>15.0448</v>
+        <v>9.4608500000000006</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
-        <v>0.42609479166666664</v>
+        <v>0.42693314814814814</v>
       </c>
       <c r="B580">
-        <v>16.283100000000001</v>
+        <v>9.60867</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
-        <v>0.42610686342592596</v>
+        <v>0.42694523148148145</v>
       </c>
       <c r="B581">
-        <v>14.991400000000001</v>
+        <v>9.0053099999999997</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
-        <v>0.4261190393518518</v>
+        <v>0.42695737268518519</v>
       </c>
       <c r="B582">
-        <v>14.085699999999999</v>
+        <v>9.1920400000000004</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
-        <v>0.4261311342592593</v>
+        <v>0.4269694907407407</v>
       </c>
       <c r="B583">
-        <v>14.9983</v>
+        <v>9.0201799999999999</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
-        <v>0.42614324074074073</v>
+        <v>0.42698168981481482</v>
       </c>
       <c r="B584">
-        <v>14.240600000000001</v>
+        <v>9.2400400000000005</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
-        <v>0.42615539351851855</v>
+        <v>0.42699388888888884</v>
       </c>
       <c r="B585">
-        <v>14.846299999999999</v>
+        <v>8.4330999999999996</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
-        <v>0.42616753472222224</v>
+        <v>0.42700604166666667</v>
       </c>
       <c r="B586">
-        <v>14.8171</v>
+        <v>9.0121599999999997</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
-        <v>0.42617969907407405</v>
+        <v>0.4270181944444445</v>
       </c>
       <c r="B587">
-        <v>15.2394</v>
+        <v>9.0154399999999999</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
-        <v>0.42619186342592591</v>
+        <v>0.42703031250000001</v>
       </c>
       <c r="B588">
-        <v>14.2392</v>
+        <v>8.9173200000000001</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
-        <v>0.426203912037037</v>
+        <v>0.42704246527777773</v>
       </c>
       <c r="B589">
-        <v>15.1462</v>
+        <v>8.2778100000000006</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
-        <v>0.42621611111111113</v>
+        <v>0.42705462962962959</v>
       </c>
       <c r="B590">
-        <v>13.8132</v>
+        <v>7.9304600000000001</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
-        <v>0.42622831018518514</v>
+        <v>0.42706675925925924</v>
       </c>
       <c r="B591">
-        <v>13.555199999999999</v>
+        <v>8.5874299999999995</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
-        <v>0.42624046296296297</v>
+        <v>0.42707899305555558</v>
       </c>
       <c r="B592">
-        <v>14.250999999999999</v>
+        <v>7.9032200000000001</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
-        <v>0.4262526620370371</v>
+        <v>0.42709098379629629</v>
       </c>
       <c r="B593">
-        <v>14.2057</v>
+        <v>8.3495399999999993</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
-        <v>0.42626473379629631</v>
+        <v>0.42710302083333335</v>
       </c>
       <c r="B594">
-        <v>13.044700000000001</v>
+        <v>8.7414699999999996</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
-        <v>0.4262768287037037</v>
+        <v>0.42711518518518521</v>
       </c>
       <c r="B595">
-        <v>13.542299999999999</v>
+        <v>7.8070899999999996</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
-        <v>0.42628902777777783</v>
+        <v>0.42712729166666669</v>
       </c>
       <c r="B596">
-        <v>14.948600000000001</v>
+        <v>8.3294200000000007</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
-        <v>0.42630123842592599</v>
+        <v>0.4271394444444444</v>
       </c>
       <c r="B597">
-        <v>13.0976</v>
+        <v>7.82958</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
-        <v>0.4263134837962963</v>
+        <v>0.42715151620370373</v>
       </c>
       <c r="B598">
-        <v>12.6753</v>
+        <v>8.8120999999999992</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
-        <v>0.42632556712962966</v>
+        <v>0.42716364583333333</v>
       </c>
       <c r="B599">
-        <v>12.839499999999999</v>
+        <v>8.6954100000000007</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
-        <v>0.42633773148148152</v>
+        <v>0.42717585648148149</v>
       </c>
       <c r="B600">
-        <v>13.194000000000001</v>
+        <v>8.5719399999999997</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
-        <v>0.4263499189814815</v>
+        <v>0.42718800925925926</v>
       </c>
       <c r="B601">
-        <v>12.479200000000001</v>
+        <v>8.2241199999999992</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
-        <v>0.42636210648148148</v>
+        <v>0.42720011574074068</v>
       </c>
       <c r="B602">
-        <v>11.839</v>
+        <v>7.8686699999999998</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
-        <v>0.42637430555555556</v>
+        <v>0.42721230324074072</v>
       </c>
       <c r="B603">
-        <v>11.564299999999999</v>
+        <v>7.2550499999999998</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
-        <v>0.42638648148148151</v>
+        <v>0.42722435185185187</v>
       </c>
       <c r="B604">
-        <v>12.856</v>
+        <v>7.9217500000000003</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
-        <v>0.42639868055555552</v>
+        <v>0.42723652777777776</v>
       </c>
       <c r="B605">
-        <v>13.008699999999999</v>
+        <v>7.7760699999999998</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
-        <v>0.42641071759259258</v>
+        <v>0.42724853009259262</v>
       </c>
       <c r="B606">
-        <v>12.6203</v>
+        <v>7.3553899999999999</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
-        <v>0.42642283564814809</v>
+        <v>0.42726069444444448</v>
       </c>
       <c r="B607">
-        <v>12.386699999999999</v>
+        <v>8.3717199999999998</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
-        <v>0.42643503472222222</v>
+        <v>0.42727284722222225</v>
       </c>
       <c r="B608">
-        <v>12.2803</v>
+        <v>7.5381600000000004</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
-        <v>0.42644716435185187</v>
+        <v>0.42728499999999997</v>
       </c>
       <c r="B609">
-        <v>12.848000000000001</v>
+        <v>6.9434500000000003</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
-        <v>0.42645934027777777</v>
+        <v>0.42729707175925924</v>
       </c>
       <c r="B610">
-        <v>12.980399999999999</v>
+        <v>6.7021499999999996</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
-        <v>0.42647155092592592</v>
+        <v>0.42730924768518519</v>
       </c>
       <c r="B611">
-        <v>12.911099999999999</v>
+        <v>7.7717900000000002</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
-        <v>0.42648377314814812</v>
+        <v>0.42732142361111114</v>
       </c>
       <c r="B612">
-        <v>11.8253</v>
+        <v>7.9708899999999998</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
-        <v>0.42649600694444439</v>
+        <v>0.42733359953703703</v>
       </c>
       <c r="B613">
-        <v>12.4312</v>
+        <v>7.7568900000000003</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
-        <v>0.42650814814814808</v>
+        <v>0.42734570601851851</v>
       </c>
       <c r="B614">
-        <v>12.2697</v>
+        <v>7.6967400000000001</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
-        <v>0.42652028935185188</v>
+        <v>0.4273578009259259</v>
       </c>
       <c r="B615">
-        <v>11.392300000000001</v>
+        <v>7.0403500000000001</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
-        <v>0.42653241898148148</v>
+        <v>0.42736997685185191</v>
       </c>
       <c r="B616">
-        <v>10.9315</v>
+        <v>7.0782999999999996</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
-        <v>0.42654465277777776</v>
+        <v>0.4273820717592593</v>
       </c>
       <c r="B617">
-        <v>11.424099999999999</v>
+        <v>7.3975299999999997</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
-        <v>0.42655689814814818</v>
+        <v>0.4273942361111111</v>
       </c>
       <c r="B618">
-        <v>10.964499999999999</v>
+        <v>7.5222300000000004</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
-        <v>0.42656912037037037</v>
+        <v>0.42740631944444446</v>
       </c>
       <c r="B619">
-        <v>11.5059</v>
+        <v>7.7423999999999999</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
-        <v>0.4265812268518519</v>
+        <v>0.42741846064814815</v>
       </c>
       <c r="B620">
-        <v>11.425599999999999</v>
+        <v>6.9228399999999999</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
-        <v>0.42659343750000001</v>
+        <v>0.42743064814814818</v>
       </c>
       <c r="B621">
-        <v>10.772</v>
+        <v>7.0729300000000004</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
-        <v>0.42660559027777778</v>
+        <v>0.42744273148148154</v>
       </c>
       <c r="B622">
-        <v>11.7159</v>
+        <v>6.8777699999999999</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
-        <v>0.42661780092592588</v>
+        <v>0.42745481481481479</v>
       </c>
       <c r="B623">
-        <v>10.7302</v>
+        <v>6.4550900000000002</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
-        <v>0.42662998842592592</v>
+        <v>0.42746688657407411</v>
       </c>
       <c r="B624">
-        <v>9.9213100000000001</v>
+        <v>6.6121999999999996</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
-        <v>0.42664219907407408</v>
+        <v>0.42747900462962962</v>
       </c>
       <c r="B625">
-        <v>10.857699999999999</v>
+        <v>6.2205899999999996</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
-        <v>0.42665435185185185</v>
+        <v>0.42749118055555552</v>
       </c>
       <c r="B626">
-        <v>10.447900000000001</v>
+        <v>7.5403000000000002</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
-        <v>0.42666653935185189</v>
+        <v>0.4275033680555555</v>
       </c>
       <c r="B627">
-        <v>9.8258100000000006</v>
+        <v>7.3102099999999997</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
-        <v>0.4266786574074074</v>
+        <v>0.42751554398148151</v>
       </c>
       <c r="B628">
-        <v>10.715999999999999</v>
+        <v>5.7909600000000001</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
-        <v>0.42669085648148142</v>
+        <v>0.42752766203703702</v>
       </c>
       <c r="B629">
-        <v>10.946400000000001</v>
+        <v>6.3532799999999998</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
-        <v>0.42670296296296295</v>
+        <v>0.42753983796296302</v>
       </c>
       <c r="B630">
-        <v>9.7210800000000006</v>
+        <v>6.5477499999999997</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
-        <v>0.42671493055555554</v>
+        <v>0.42755199074074074</v>
       </c>
       <c r="B631">
-        <v>10.569000000000001</v>
+        <v>6.73658</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
-        <v>0.42672707175925922</v>
+        <v>0.42756416666666669</v>
       </c>
       <c r="B632">
-        <v>10.114000000000001</v>
+        <v>6.2123600000000003</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
-        <v>0.42673928240740738</v>
+        <v>0.42757631944444441</v>
       </c>
       <c r="B633">
-        <v>9.9022000000000006</v>
+        <v>5.4771400000000003</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
-        <v>0.42675148148148151</v>
+        <v>0.42758847222222224</v>
       </c>
       <c r="B634">
-        <v>9.7584800000000005</v>
+        <v>6.5225400000000002</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
-        <v>0.4267636574074074</v>
+        <v>0.42760054398148145</v>
       </c>
       <c r="B635">
-        <v>9.1715900000000001</v>
+        <v>7.1903199999999998</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
-        <v>0.42677576388888888</v>
+        <v>0.42761268518518514</v>
       </c>
       <c r="B636">
-        <v>9.7157099999999996</v>
+        <v>7.0251900000000003</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
-        <v>0.42678793981481483</v>
+        <v>0.42762487268518518</v>
       </c>
       <c r="B637">
-        <v>9.9916</v>
+        <v>6.1452799999999996</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
-        <v>0.42679998842592592</v>
+        <v>0.42763692129629632</v>
       </c>
       <c r="B638">
-        <v>9.5641300000000005</v>
+        <v>6.9942700000000002</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
-        <v>0.42681212962962961</v>
+        <v>0.42764913194444448</v>
       </c>
       <c r="B639">
-        <v>10.6151</v>
+        <v>5.5900800000000004</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
-        <v>0.42682421296296297</v>
+        <v>0.42766124999999999</v>
       </c>
       <c r="B640">
-        <v>10.224</v>
+        <v>6.5298800000000004</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
-        <v>0.42683621527777776</v>
+        <v>0.42767337962962965</v>
       </c>
       <c r="B641">
-        <v>9.6459499999999991</v>
+        <v>5.7190500000000002</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
-        <v>0.42684839120370371</v>
+        <v>0.42768556712962968</v>
       </c>
       <c r="B642">
-        <v>8.6899800000000003</v>
+        <v>6.0287800000000002</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
-        <v>0.42686050925925928</v>
+        <v>0.42769774305555552</v>
       </c>
       <c r="B643">
-        <v>9.5718300000000003</v>
+        <v>5.4786999999999999</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
-        <v>0.42687267361111109</v>
+        <v>0.42770996527777783</v>
       </c>
       <c r="B644">
-        <v>9.2374200000000002</v>
+        <v>5.57653</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
-        <v>0.42688478009259262</v>
+        <v>0.42772214120370372</v>
       </c>
       <c r="B645">
-        <v>10.3019</v>
+        <v>5.3988800000000001</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
-        <v>0.42689693287037034</v>
+        <v>0.42773431712962967</v>
       </c>
       <c r="B646">
-        <v>9.3534299999999995</v>
+        <v>6.0329800000000002</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
-        <v>0.42690898148148149</v>
+        <v>0.42774645833333336</v>
       </c>
       <c r="B647">
-        <v>9.6966400000000004</v>
+        <v>5.7946400000000002</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
-        <v>0.42692103009259258</v>
+        <v>0.4277585879629629</v>
       </c>
       <c r="B648">
-        <v>9.4608500000000006</v>
+        <v>5.8480699999999999</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
-        <v>0.42693314814814814</v>
+        <v>0.42777070601851858</v>
       </c>
       <c r="B649">
-        <v>9.60867</v>
+        <v>6.9899300000000002</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
-        <v>0.42694523148148145</v>
+        <v>0.42778289351851856</v>
       </c>
       <c r="B650">
-        <v>9.0053099999999997</v>
+        <v>5.5930999999999997</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
-        <v>0.42695737268518519</v>
+        <v>0.42779493055555562</v>
       </c>
       <c r="B651">
-        <v>9.1920400000000004</v>
+        <v>5.87845</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
-        <v>0.4269694907407407</v>
+        <v>0.42780699074074069</v>
       </c>
       <c r="B652">
-        <v>9.0201799999999999</v>
+        <v>5.7473999999999998</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
-        <v>0.42698168981481482</v>
+        <v>0.42781920138888885</v>
       </c>
       <c r="B653">
-        <v>9.2400400000000005</v>
+        <v>6.0377099999999997</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
-        <v>0.42699388888888884</v>
+        <v>0.42783140046296297</v>
       </c>
       <c r="B654">
-        <v>8.4330999999999996</v>
+        <v>5.0960700000000001</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
-        <v>0.42700604166666667</v>
+        <v>0.42784353009259257</v>
       </c>
       <c r="B655">
-        <v>9.0121599999999997</v>
+        <v>5.6363300000000001</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
-        <v>0.4270181944444445</v>
+        <v>0.42785563657407405</v>
       </c>
       <c r="B656">
-        <v>9.0154399999999999</v>
+        <v>5.7533399999999997</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
-        <v>0.42703031250000001</v>
+        <v>0.42786775462962962</v>
       </c>
       <c r="B657">
-        <v>8.9173200000000001</v>
+        <v>6.1733799999999999</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
-        <v>0.42704246527777773</v>
+        <v>0.42787996527777777</v>
       </c>
       <c r="B658">
-        <v>8.2778100000000006</v>
+        <v>5.4801399999999996</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
-        <v>0.42705462962962959</v>
+        <v>0.42789219907407405</v>
       </c>
       <c r="B659">
-        <v>7.9304600000000001</v>
+        <v>5.71258</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
-        <v>0.42706675925925924</v>
+        <v>0.42790439814814818</v>
       </c>
       <c r="B660">
-        <v>8.5874299999999995</v>
+        <v>6.3679800000000002</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
-        <v>0.42707899305555558</v>
+        <v>0.4279165509259259</v>
       </c>
       <c r="B661">
-        <v>7.9032200000000001</v>
+        <v>5.9321299999999999</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
-        <v>0.42709098379629629</v>
+        <v>0.42792872685185185</v>
       </c>
       <c r="B662">
-        <v>8.3495399999999993</v>
+        <v>6.2466999999999997</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
-        <v>0.42710302083333335</v>
+        <v>0.42794090277777774</v>
       </c>
       <c r="B663">
-        <v>8.7414699999999996</v>
+        <v>6.1963699999999999</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
-        <v>0.42711518518518521</v>
+        <v>0.42795310185185187</v>
       </c>
       <c r="B664">
-        <v>7.8070899999999996</v>
+        <v>4.8620799999999997</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
-        <v>0.42712729166666669</v>
+        <v>0.42796535879629632</v>
       </c>
       <c r="B665">
-        <v>8.3294200000000007</v>
+        <v>6.8180899999999998</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
-        <v>0.4271394444444444</v>
+        <v>0.4279775925925926</v>
       </c>
       <c r="B666">
-        <v>7.82958</v>
+        <v>5.0066699999999997</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
-        <v>0.42715151620370373</v>
+        <v>0.42798967592592591</v>
       </c>
       <c r="B667">
-        <v>8.8120999999999992</v>
+        <v>5.6157700000000004</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
-        <v>0.42716364583333333</v>
+        <v>0.42800190972222218</v>
       </c>
       <c r="B668">
-        <v>8.6954100000000007</v>
+        <v>4.4797500000000001</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
-        <v>0.42717585648148149</v>
+        <v>0.42801409722222222</v>
       </c>
       <c r="B669">
-        <v>8.5719399999999997</v>
+        <v>5.10839</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
-        <v>0.42718800925925926</v>
+        <v>0.42802626157407403</v>
       </c>
       <c r="B670">
-        <v>8.2241199999999992</v>
+        <v>4.9707100000000004</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
-        <v>0.42720011574074068</v>
+        <v>0.42803847222222219</v>
       </c>
       <c r="B671">
-        <v>7.8686699999999998</v>
+        <v>5.1846500000000004</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
-        <v>0.42721230324074072</v>
+        <v>0.42805064814814814</v>
       </c>
       <c r="B672">
-        <v>7.2550499999999998</v>
+        <v>5.1112299999999999</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
-        <v>0.42722435185185187</v>
+        <v>0.42806288194444447</v>
       </c>
       <c r="B673">
-        <v>7.9217500000000003</v>
+        <v>5.7242300000000004</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
-        <v>0.42723652777777776</v>
+        <v>0.42807505787037037</v>
       </c>
       <c r="B674">
-        <v>7.7760699999999998</v>
+        <v>5.3084199999999999</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
-        <v>0.42724853009259262</v>
+        <v>0.42808722222222217</v>
       </c>
       <c r="B675">
-        <v>7.3553899999999999</v>
+        <v>5.8668300000000002</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
-        <v>0.42726069444444448</v>
+        <v>0.42809945601851851</v>
       </c>
       <c r="B676">
-        <v>8.3717199999999998</v>
+        <v>6.3218800000000002</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
-        <v>0.42727284722222225</v>
+        <v>0.42811157407407402</v>
       </c>
       <c r="B677">
-        <v>7.5381600000000004</v>
+        <v>5.7845300000000002</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
-        <v>0.42728499999999997</v>
+        <v>0.42812376157407406</v>
       </c>
       <c r="B678">
-        <v>6.9434500000000003</v>
+        <v>5.80579</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
-        <v>0.42729707175925924</v>
+        <v>0.42813600694444448</v>
       </c>
       <c r="B679">
-        <v>6.7021499999999996</v>
+        <v>5.5945200000000002</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
-        <v>0.42730924768518519</v>
+        <v>0.42814813657407413</v>
       </c>
       <c r="B680">
-        <v>7.7717900000000002</v>
+        <v>4.2911000000000001</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
-        <v>0.42732142361111114</v>
+        <v>0.42816038194444445</v>
       </c>
       <c r="B681">
-        <v>7.9708899999999998</v>
+        <v>5.1211000000000002</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
-        <v>0.42733359953703703</v>
+        <v>0.4281725115740741</v>
       </c>
       <c r="B682">
-        <v>7.7568900000000003</v>
+        <v>4.8665900000000004</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
-        <v>0.42734570601851851</v>
+        <v>0.42818465277777779</v>
       </c>
       <c r="B683">
-        <v>7.6967400000000001</v>
+        <v>5.4737</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
-        <v>0.4273578009259259</v>
+        <v>0.42819688657407412</v>
       </c>
       <c r="B684">
-        <v>7.0403500000000001</v>
+        <v>4.8096699999999997</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
-        <v>0.42736997685185191</v>
+        <v>0.42820912037037034</v>
       </c>
       <c r="B685">
-        <v>7.0782999999999996</v>
+        <v>4.1432700000000002</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
-        <v>0.4273820717592593</v>
+        <v>0.42822129629629629</v>
       </c>
       <c r="B686">
-        <v>7.3975299999999997</v>
+        <v>5.8493500000000003</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
-        <v>0.4273942361111111</v>
+        <v>0.42823351851851849</v>
       </c>
       <c r="B687">
-        <v>7.5222300000000004</v>
+        <v>4.6063999999999998</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
-        <v>0.42740631944444446</v>
+        <v>0.42824565972222228</v>
       </c>
       <c r="B688">
-        <v>7.7423999999999999</v>
+        <v>5.9073000000000002</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
-        <v>0.42741846064814815</v>
+        <v>0.42825788194444442</v>
       </c>
       <c r="B689">
-        <v>6.9228399999999999</v>
+        <v>5.8868099999999997</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
-        <v>0.42743064814814818</v>
+        <v>0.42827006944444446</v>
       </c>
       <c r="B690">
-        <v>7.0729300000000004</v>
+        <v>4.8164800000000003</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
-        <v>0.42744273148148154</v>
+        <v>0.42828229166666665</v>
       </c>
       <c r="B691">
-        <v>6.8777699999999999</v>
+        <v>5.4400599999999999</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
-        <v>0.42745481481481479</v>
+        <v>0.42829449074074072</v>
       </c>
       <c r="B692">
-        <v>6.4550900000000002</v>
+        <v>5.0897300000000003</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
-        <v>0.42746688657407411</v>
+        <v>0.42830666666666672</v>
       </c>
       <c r="B693">
-        <v>6.6121999999999996</v>
+        <v>4.80999</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
-        <v>0.42747900462962962</v>
+        <v>0.42831880787037041</v>
       </c>
       <c r="B694">
-        <v>6.2205899999999996</v>
+        <v>6.0407999999999999</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
-        <v>0.42749118055555552</v>
+        <v>0.42833093749999995</v>
       </c>
       <c r="B695">
-        <v>7.5403000000000002</v>
+        <v>5.4916499999999999</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
-        <v>0.4275033680555555</v>
+        <v>0.42834312499999999</v>
       </c>
       <c r="B696">
-        <v>7.3102099999999997</v>
+        <v>4.1339800000000002</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
-        <v>0.42751554398148151</v>
+        <v>0.42835534722222224</v>
       </c>
       <c r="B697">
-        <v>5.7909600000000001</v>
+        <v>5.5494700000000003</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
-        <v>0.42752766203703702</v>
+        <v>0.4283673842592593</v>
       </c>
       <c r="B698">
-        <v>6.3532799999999998</v>
+        <v>4.8978200000000003</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
-        <v>0.42753983796296302</v>
+        <v>0.42837957175925928</v>
       </c>
       <c r="B699">
-        <v>6.5477499999999997</v>
+        <v>4.2085900000000001</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
-        <v>0.42755199074074074</v>
+        <v>0.42839171296296297</v>
       </c>
       <c r="B700">
-        <v>6.73658</v>
+        <v>5.4045899999999998</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
-        <v>0.42756416666666669</v>
+        <v>0.42840391203703704</v>
       </c>
       <c r="B701">
-        <v>6.2123600000000003</v>
+        <v>4.4430699999999996</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
-        <v>0.42757631944444441</v>
+        <v>0.42841607638888884</v>
       </c>
       <c r="B702">
-        <v>5.4771400000000003</v>
+        <v>5.3583499999999997</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
-        <v>0.42758847222222224</v>
+        <v>0.42842817129629635</v>
       </c>
       <c r="B703">
-        <v>6.5225400000000002</v>
+        <v>5.1928799999999997</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
-        <v>0.42760054398148145</v>
+        <v>0.42844027777777777</v>
       </c>
       <c r="B704">
-        <v>7.1903199999999998</v>
+        <v>4.0822500000000002</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
-        <v>0.42761268518518514</v>
+        <v>0.42845234953703709</v>
       </c>
       <c r="B705">
-        <v>7.0251900000000003</v>
+        <v>4.4820599999999997</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
-        <v>0.42762487268518518</v>
+        <v>0.42846454861111111</v>
       </c>
       <c r="B706">
-        <v>6.1452799999999996</v>
+        <v>5.3069800000000003</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
-        <v>0.42763692129629632</v>
+        <v>0.42847668981481479</v>
       </c>
       <c r="B707">
-        <v>6.9942700000000002</v>
+        <v>4.4165000000000001</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
-        <v>0.42764913194444448</v>
+        <v>0.42848886574074074</v>
       </c>
       <c r="B708">
-        <v>5.5900800000000004</v>
+        <v>4.0938100000000004</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
-        <v>0.42766124999999999</v>
+        <v>0.4285009027777778</v>
       </c>
       <c r="B709">
-        <v>6.5298800000000004</v>
+        <v>5.1865600000000001</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
-        <v>0.42767337962962965</v>
+        <v>0.42851310185185182</v>
       </c>
       <c r="B710">
-        <v>5.7190500000000002</v>
+        <v>5.0680199999999997</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
-        <v>0.42768556712962968</v>
+        <v>0.42852527777777782</v>
       </c>
       <c r="B711">
-        <v>6.0287800000000002</v>
+        <v>4.5338399999999996</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
-        <v>0.42769774305555552</v>
+        <v>0.42853747685185184</v>
       </c>
       <c r="B712">
-        <v>5.4786999999999999</v>
+        <v>4.4584700000000002</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
-        <v>0.42770996527777783</v>
+        <v>0.42854965277777779</v>
       </c>
       <c r="B713">
-        <v>5.57653</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
-        <v>0.42772214120370372</v>
+        <v>0.42856179398148148</v>
       </c>
       <c r="B714">
-        <v>5.3988800000000001</v>
+        <v>4.8447899999999997</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
-        <v>0.42773431712962967</v>
+        <v>0.42857399305555555</v>
       </c>
       <c r="B715">
-        <v>6.0329800000000002</v>
+        <v>4.6123599999999998</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
-        <v>0.42774645833333336</v>
+        <v>0.42858619212962967</v>
       </c>
       <c r="B716">
-        <v>5.7946400000000002</v>
+        <v>5.05891</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
-        <v>0.4277585879629629</v>
+        <v>0.42859832175925922</v>
       </c>
       <c r="B717">
-        <v>5.8480699999999999</v>
+        <v>4.2245200000000001</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
-        <v>0.42777070601851858</v>
+        <v>0.4286105092592592</v>
       </c>
       <c r="B718">
-        <v>6.9899300000000002</v>
+        <v>4.5011700000000001</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
-        <v>0.42778289351851856</v>
+        <v>0.42862248842592593</v>
       </c>
       <c r="B719">
-        <v>5.5930999999999997</v>
+        <v>4.1326799999999997</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
-        <v>0.42779493055555562</v>
+        <v>0.42863460648148149</v>
       </c>
       <c r="B720">
-        <v>5.87845</v>
+        <v>5.2259399999999996</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
-        <v>0.42780699074074069</v>
+        <v>0.42864678240740745</v>
       </c>
       <c r="B721">
-        <v>5.7473999999999998</v>
+        <v>4.4562999999999997</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
-        <v>0.42781920138888885</v>
+        <v>0.42865898148148146</v>
       </c>
       <c r="B722">
-        <v>6.0377099999999997</v>
+        <v>3.9991599999999998</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
-        <v>0.42783140046296297</v>
+        <v>0.42867114583333332</v>
       </c>
       <c r="B723">
-        <v>5.0960700000000001</v>
+        <v>4.8682699999999999</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
-        <v>0.42784353009259257</v>
+        <v>0.42868333333333331</v>
       </c>
       <c r="B724">
-        <v>5.6363300000000001</v>
+        <v>5.1766199999999998</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
-        <v>0.42785563657407405</v>
+        <v>0.42869543981481484</v>
       </c>
       <c r="B725">
-        <v>5.7533399999999997</v>
+        <v>4.78294</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
-        <v>0.42786775462962962</v>
+        <v>0.42870756944444449</v>
       </c>
       <c r="B726">
-        <v>6.1733799999999999</v>
+        <v>3.5939899999999998</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
-        <v>0.42787996527777777</v>
+        <v>0.42871976851851851</v>
       </c>
       <c r="B727">
-        <v>5.4801399999999996</v>
+        <v>4.0714199999999998</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
-        <v>0.42789219907407405</v>
+        <v>0.42873197916666667</v>
       </c>
       <c r="B728">
-        <v>5.71258</v>
+        <v>3.78104</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
-        <v>0.42790439814814818</v>
+        <v>0.42874410879629632</v>
       </c>
       <c r="B729">
-        <v>6.3679800000000002</v>
+        <v>5.5310800000000002</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" s="1">
-        <v>0.4279165509259259</v>
+        <v>0.42875618055555553</v>
       </c>
       <c r="B730">
-        <v>5.9321299999999999</v>
+        <v>5.0136000000000003</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" s="1">
-        <v>0.42792872685185185</v>
+        <v>0.42876836805555557</v>
       </c>
       <c r="B731">
-        <v>6.2466999999999997</v>
+        <v>4.3359899999999998</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" s="1">
-        <v>0.42794090277777774</v>
+        <v>0.42878052083333335</v>
       </c>
       <c r="B732">
-        <v>6.1963699999999999</v>
+        <v>3.78857</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" s="1">
-        <v>0.42795310185185187</v>
+        <v>0.42879269675925924</v>
       </c>
       <c r="B733">
-        <v>4.8620799999999997</v>
+        <v>4.2217599999999997</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" s="1">
-        <v>0.42796535879629632</v>
+        <v>0.42880488425925922</v>
       </c>
       <c r="B734">
-        <v>6.8180899999999998</v>
+        <v>4.2225999999999999</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" s="1">
-        <v>0.4279775925925926</v>
+        <v>0.42881699074074076</v>
       </c>
       <c r="B735">
-        <v>5.0066699999999997</v>
+        <v>3.7647499999999998</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" s="1">
-        <v>0.42798967592592591</v>
+        <v>0.42882914351851859</v>
       </c>
       <c r="B736">
-        <v>5.6157700000000004</v>
+        <v>4.5270900000000003</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" s="1">
-        <v>0.42800190972222218</v>
+        <v>0.4288413425925926</v>
       </c>
       <c r="B737">
-        <v>4.4797500000000001</v>
+        <v>5.8979699999999999</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
-        <v>0.42801409722222222</v>
+        <v>0.42885351851851855</v>
       </c>
       <c r="B738">
-        <v>5.10839</v>
+        <v>4.3095100000000004</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
-        <v>0.42802626157407403</v>
+        <v>0.42886564814814815</v>
       </c>
       <c r="B739">
-        <v>4.9707100000000004</v>
+        <v>4.3233300000000003</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
-        <v>0.42803847222222219</v>
+        <v>0.42887771990740747</v>
       </c>
       <c r="B740">
-        <v>5.1846500000000004</v>
+        <v>4.33995</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
-        <v>0.42805064814814814</v>
+        <v>0.42888980324074072</v>
       </c>
       <c r="B741">
-        <v>5.1112299999999999</v>
+        <v>4.2018599999999999</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" s="1">
-        <v>0.42806288194444447</v>
+        <v>0.4289019097222222</v>
       </c>
       <c r="B742">
-        <v>5.7242300000000004</v>
+        <v>4.3881300000000003</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
-        <v>0.42807505787037037</v>
+        <v>0.42891405092592594</v>
       </c>
       <c r="B743">
-        <v>5.3084199999999999</v>
+        <v>4.0588899999999999</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
-        <v>0.42808722222222217</v>
+        <v>0.42892612268518515</v>
       </c>
       <c r="B744">
-        <v>5.8668300000000002</v>
+        <v>4.0716900000000003</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
-        <v>0.42809945601851851</v>
+        <v>0.42893827546296298</v>
       </c>
       <c r="B745">
-        <v>6.3218800000000002</v>
+        <v>3.9322400000000002</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
-        <v>0.42811157407407402</v>
+        <v>0.42895038194444446</v>
       </c>
       <c r="B746">
-        <v>5.7845300000000002</v>
+        <v>4.8311500000000001</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" s="1">
-        <v>0.42812376157407406</v>
+        <v>0.42896252314814814</v>
       </c>
       <c r="B747">
-        <v>5.80579</v>
+        <v>3.4462899999999999</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
-        <v>0.42813600694444448</v>
+        <v>0.42897466435185183</v>
       </c>
       <c r="B748">
-        <v>5.5945200000000002</v>
+        <v>4.8997000000000002</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" s="1">
-        <v>0.42814813657407413</v>
+        <v>0.4289868634259259</v>
       </c>
       <c r="B749">
-        <v>4.2911000000000001</v>
+        <v>5.0990099999999998</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" s="1">
-        <v>0.42816038194444445</v>
+        <v>0.42899902777777782</v>
       </c>
       <c r="B750">
-        <v>5.1211000000000002</v>
+        <v>3.95628</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" s="1">
-        <v>0.4281725115740741</v>
+        <v>0.42901108796296294</v>
       </c>
       <c r="B751">
-        <v>4.8665900000000004</v>
+        <v>4.0706699999999998</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" s="1">
-        <v>0.42818465277777779</v>
+        <v>0.42902319444444442</v>
       </c>
       <c r="B752">
-        <v>5.4737</v>
+        <v>4.3497599999999998</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" s="1">
-        <v>0.42819688657407412</v>
+        <v>0.42903533564814811</v>
       </c>
       <c r="B753">
-        <v>4.8096699999999997</v>
+        <v>4.2868700000000004</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" s="1">
-        <v>0.42820912037037034</v>
+        <v>0.42904749999999997</v>
       </c>
       <c r="B754">
-        <v>4.1432700000000002</v>
+        <v>3.7950400000000002</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" s="1">
-        <v>0.42822129629629629</v>
+        <v>0.42905967592592592</v>
       </c>
       <c r="B755">
-        <v>5.8493500000000003</v>
+        <v>3.83175</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" s="1">
-        <v>0.42823351851851849</v>
+        <v>0.42907174768518519</v>
       </c>
       <c r="B756">
-        <v>4.6063999999999998</v>
+        <v>3.78898</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" s="1">
-        <v>0.42824565972222228</v>
+        <v>0.42908387731481484</v>
       </c>
       <c r="B757">
-        <v>5.9073000000000002</v>
+        <v>3.6408200000000002</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" s="1">
-        <v>0.42825788194444442</v>
+        <v>0.42909609953703703</v>
       </c>
       <c r="B758">
-        <v>5.8868099999999997</v>
+        <v>2.7242199999999999</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" s="1">
-        <v>0.42827006944444446</v>
+        <v>0.42910832175925928</v>
       </c>
       <c r="B759">
-        <v>4.8164800000000003</v>
+        <v>4.4043799999999997</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" s="1">
-        <v>0.42828229166666665</v>
+        <v>0.42912056712962965</v>
       </c>
       <c r="B760">
-        <v>5.4400599999999999</v>
+        <v>4.1287099999999999</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761" s="1">
-        <v>0.42829449074074072</v>
+        <v>0.42913270833333333</v>
       </c>
       <c r="B761">
-        <v>5.0897300000000003</v>
+        <v>4.4873099999999999</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762" s="1">
-        <v>0.42830666666666672</v>
+        <v>0.42914486111111111</v>
       </c>
       <c r="B762">
-        <v>4.80999</v>
+        <v>5.00047</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763" s="1">
-        <v>0.42831880787037041</v>
+        <v>0.42915700231481485</v>
       </c>
       <c r="B763">
-        <v>6.0407999999999999</v>
+        <v>4.2654699999999997</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764" s="1">
-        <v>0.42833093749999995</v>
+        <v>0.42916915509259257</v>
       </c>
       <c r="B764">
-        <v>5.4916499999999999</v>
+        <v>4.5670599999999997</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A765" s="1">
-        <v>0.42834312499999999</v>
+        <v>0.42918128472222222</v>
       </c>
       <c r="B765">
-        <v>4.1339800000000002</v>
-      </c>
-    </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A766" s="1">
-        <v>0.42835534722222224</v>
-      </c>
-      <c r="B766">
-        <v>5.5494700000000003</v>
-      </c>
-    </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A767" s="1">
-        <v>0.4283673842592593</v>
-      </c>
-      <c r="B767">
-        <v>4.8978200000000003</v>
-      </c>
-    </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A768" s="1">
-        <v>0.42837957175925928</v>
-      </c>
-      <c r="B768">
-        <v>4.2085900000000001</v>
-      </c>
-    </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A769" s="1">
-        <v>0.42839171296296297</v>
-      </c>
-      <c r="B769">
-        <v>5.4045899999999998</v>
-      </c>
-    </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A770" s="1">
-        <v>0.42840391203703704</v>
-      </c>
-      <c r="B770">
-        <v>4.4430699999999996</v>
-      </c>
-    </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A771" s="1">
-        <v>0.42841607638888884</v>
-      </c>
-      <c r="B771">
-        <v>5.3583499999999997</v>
-      </c>
-    </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A772" s="1">
-        <v>0.42842817129629635</v>
-      </c>
-      <c r="B772">
-        <v>5.1928799999999997</v>
-      </c>
-    </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A773" s="1">
-        <v>0.42844027777777777</v>
-      </c>
-      <c r="B773">
-        <v>4.0822500000000002</v>
-      </c>
-    </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A774" s="1">
-        <v>0.42845234953703709</v>
-      </c>
-      <c r="B774">
-        <v>4.4820599999999997</v>
-      </c>
-    </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A775" s="1">
-        <v>0.42846454861111111</v>
-      </c>
-      <c r="B775">
-        <v>5.3069800000000003</v>
-      </c>
-    </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A776" s="1">
-        <v>0.42847668981481479</v>
-      </c>
-      <c r="B776">
-        <v>4.4165000000000001</v>
-      </c>
-    </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A777" s="1">
-        <v>0.42848886574074074</v>
-      </c>
-      <c r="B777">
-        <v>4.0938100000000004</v>
-      </c>
-    </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A778" s="1">
-        <v>0.4285009027777778</v>
-      </c>
-      <c r="B778">
-        <v>5.1865600000000001</v>
-      </c>
-    </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A779" s="1">
-        <v>0.42851310185185182</v>
-      </c>
-      <c r="B779">
-        <v>5.0680199999999997</v>
-      </c>
-    </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A780" s="1">
-        <v>0.42852527777777782</v>
-      </c>
-      <c r="B780">
-        <v>4.5338399999999996</v>
-      </c>
-    </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A781" s="1">
-        <v>0.42853747685185184</v>
-      </c>
-      <c r="B781">
-        <v>4.4584700000000002</v>
-      </c>
-    </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A782" s="1">
-        <v>0.42854965277777779</v>
-      </c>
-      <c r="B782">
-        <v>3.66</v>
-      </c>
-    </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A783" s="1">
-        <v>0.42856179398148148</v>
-      </c>
-      <c r="B783">
-        <v>4.8447899999999997</v>
-      </c>
-    </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A784" s="1">
-        <v>0.42857399305555555</v>
-      </c>
-      <c r="B784">
-        <v>4.6123599999999998</v>
-      </c>
-    </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A785" s="1">
-        <v>0.42858619212962967</v>
-      </c>
-      <c r="B785">
-        <v>5.05891</v>
-      </c>
-    </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A786" s="1">
-        <v>0.42859832175925922</v>
-      </c>
-      <c r="B786">
-        <v>4.2245200000000001</v>
-      </c>
-    </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A787" s="1">
-        <v>0.4286105092592592</v>
-      </c>
-      <c r="B787">
-        <v>4.5011700000000001</v>
-      </c>
-    </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A788" s="1">
-        <v>0.42862248842592593</v>
-      </c>
-      <c r="B788">
-        <v>4.1326799999999997</v>
-      </c>
-    </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A789" s="1">
-        <v>0.42863460648148149</v>
-      </c>
-      <c r="B789">
-        <v>5.2259399999999996</v>
-      </c>
-    </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A790" s="1">
-        <v>0.42864678240740745</v>
-      </c>
-      <c r="B790">
-        <v>4.4562999999999997</v>
-      </c>
-    </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A791" s="1">
-        <v>0.42865898148148146</v>
-      </c>
-      <c r="B791">
-        <v>3.9991599999999998</v>
-      </c>
-    </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A792" s="1">
-        <v>0.42867114583333332</v>
-      </c>
-      <c r="B792">
-        <v>4.8682699999999999</v>
-      </c>
-    </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A793" s="1">
-        <v>0.42868333333333331</v>
-      </c>
-      <c r="B793">
-        <v>5.1766199999999998</v>
-      </c>
-    </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A794" s="1">
-        <v>0.42869543981481484</v>
-      </c>
-      <c r="B794">
-        <v>4.78294</v>
-      </c>
-    </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A795" s="1">
-        <v>0.42870756944444449</v>
-      </c>
-      <c r="B795">
-        <v>3.5939899999999998</v>
-      </c>
-    </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A796" s="1">
-        <v>0.42871976851851851</v>
-      </c>
-      <c r="B796">
-        <v>4.0714199999999998</v>
-      </c>
-    </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A797" s="1">
-        <v>0.42873197916666667</v>
-      </c>
-      <c r="B797">
-        <v>3.78104</v>
-      </c>
-    </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A798" s="1">
-        <v>0.42874410879629632</v>
-      </c>
-      <c r="B798">
-        <v>5.5310800000000002</v>
-      </c>
-    </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A799" s="1">
-        <v>0.42875618055555553</v>
-      </c>
-      <c r="B799">
-        <v>5.0136000000000003</v>
-      </c>
-    </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A800" s="1">
-        <v>0.42876836805555557</v>
-      </c>
-      <c r="B800">
-        <v>4.3359899999999998</v>
-      </c>
-    </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A801" s="1">
-        <v>0.42878052083333335</v>
-      </c>
-      <c r="B801">
-        <v>3.78857</v>
-      </c>
-    </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A802" s="1">
-        <v>0.42879269675925924</v>
-      </c>
-      <c r="B802">
-        <v>4.2217599999999997</v>
-      </c>
-    </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A803" s="1">
-        <v>0.42880488425925922</v>
-      </c>
-      <c r="B803">
-        <v>4.2225999999999999</v>
-      </c>
-    </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A804" s="1">
-        <v>0.42881699074074076</v>
-      </c>
-      <c r="B804">
-        <v>3.7647499999999998</v>
-      </c>
-    </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A805" s="1">
-        <v>0.42882914351851859</v>
-      </c>
-      <c r="B805">
-        <v>4.5270900000000003</v>
-      </c>
-    </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A806" s="1">
-        <v>0.4288413425925926</v>
-      </c>
-      <c r="B806">
-        <v>5.8979699999999999</v>
-      </c>
-    </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A807" s="1">
-        <v>0.42885351851851855</v>
-      </c>
-      <c r="B807">
-        <v>4.3095100000000004</v>
-      </c>
-    </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A808" s="1">
-        <v>0.42886564814814815</v>
-      </c>
-      <c r="B808">
-        <v>4.3233300000000003</v>
-      </c>
-    </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A809" s="1">
-        <v>0.42887771990740747</v>
-      </c>
-      <c r="B809">
-        <v>4.33995</v>
-      </c>
-    </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A810" s="1">
-        <v>0.42888980324074072</v>
-      </c>
-      <c r="B810">
-        <v>4.2018599999999999</v>
-      </c>
-    </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A811" s="1">
-        <v>0.4289019097222222</v>
-      </c>
-      <c r="B811">
-        <v>4.3881300000000003</v>
-      </c>
-    </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A812" s="1">
-        <v>0.42891405092592594</v>
-      </c>
-      <c r="B812">
-        <v>4.0588899999999999</v>
-      </c>
-    </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A813" s="1">
-        <v>0.42892612268518515</v>
-      </c>
-      <c r="B813">
-        <v>4.0716900000000003</v>
-      </c>
-    </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A814" s="1">
-        <v>0.42893827546296298</v>
-      </c>
-      <c r="B814">
-        <v>3.9322400000000002</v>
-      </c>
-    </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A815" s="1">
-        <v>0.42895038194444446</v>
-      </c>
-      <c r="B815">
-        <v>4.8311500000000001</v>
-      </c>
-    </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A816" s="1">
-        <v>0.42896252314814814</v>
-      </c>
-      <c r="B816">
-        <v>3.4462899999999999</v>
-      </c>
-    </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A817" s="1">
-        <v>0.42897466435185183</v>
-      </c>
-      <c r="B817">
-        <v>4.8997000000000002</v>
-      </c>
-    </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A818" s="1">
-        <v>0.4289868634259259</v>
-      </c>
-      <c r="B818">
-        <v>5.0990099999999998</v>
-      </c>
-    </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A819" s="1">
-        <v>0.42899902777777782</v>
-      </c>
-      <c r="B819">
-        <v>3.95628</v>
-      </c>
-    </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A820" s="1">
-        <v>0.42901108796296294</v>
-      </c>
-      <c r="B820">
-        <v>4.0706699999999998</v>
-      </c>
-    </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A821" s="1">
-        <v>0.42902319444444442</v>
-      </c>
-      <c r="B821">
-        <v>4.3497599999999998</v>
-      </c>
-    </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A822" s="1">
-        <v>0.42903533564814811</v>
-      </c>
-      <c r="B822">
-        <v>4.2868700000000004</v>
-      </c>
-    </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A823" s="1">
-        <v>0.42904749999999997</v>
-      </c>
-      <c r="B823">
-        <v>3.7950400000000002</v>
-      </c>
-    </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A824" s="1">
-        <v>0.42905967592592592</v>
-      </c>
-      <c r="B824">
-        <v>3.83175</v>
-      </c>
-    </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A825" s="1">
-        <v>0.42907174768518519</v>
-      </c>
-      <c r="B825">
-        <v>3.78898</v>
-      </c>
-    </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A826" s="1">
-        <v>0.42908387731481484</v>
-      </c>
-      <c r="B826">
-        <v>3.6408200000000002</v>
-      </c>
-    </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A827" s="1">
-        <v>0.42909609953703703</v>
-      </c>
-      <c r="B827">
-        <v>2.7242199999999999</v>
-      </c>
-    </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A828" s="1">
-        <v>0.42910832175925928</v>
-      </c>
-      <c r="B828">
-        <v>4.4043799999999997</v>
-      </c>
-    </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A829" s="1">
-        <v>0.42912056712962965</v>
-      </c>
-      <c r="B829">
-        <v>4.1287099999999999</v>
-      </c>
-    </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A830" s="1">
-        <v>0.42913270833333333</v>
-      </c>
-      <c r="B830">
-        <v>4.4873099999999999</v>
-      </c>
-    </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A831" s="1">
-        <v>0.42914486111111111</v>
-      </c>
-      <c r="B831">
-        <v>5.00047</v>
-      </c>
-    </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A832" s="1">
-        <v>0.42915700231481485</v>
-      </c>
-      <c r="B832">
-        <v>4.2654699999999997</v>
-      </c>
-    </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A833" s="1">
-        <v>0.42916915509259257</v>
-      </c>
-      <c r="B833">
-        <v>4.5670599999999997</v>
-      </c>
-    </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A834" s="1">
-        <v>0.42918128472222222</v>
-      </c>
-      <c r="B834">
         <v>3.64751</v>
       </c>
     </row>
